--- a/03.指标管理/权益/指标定义表-权益类V1.4.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.4.xlsx
@@ -3716,6 +3716,178 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3725,24 +3897,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3761,161 +3924,188 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3923,210 +4113,39 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4136,36 +4155,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4872,7 +4872,7 @@
   <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
@@ -4931,13 +4931,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="234" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12"/>
@@ -4953,9 +4953,9 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
@@ -4973,9 +4973,9 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="177"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
+      <c r="A4" s="235"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
@@ -4995,9 +4995,9 @@
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -5017,9 +5017,9 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
+      <c r="A6" s="235"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -5039,9 +5039,9 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="178"/>
+      <c r="A7" s="235"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="236"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -5059,9 +5059,9 @@
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="177"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="176" t="s">
+      <c r="A8" s="235"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="234" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="12"/>
@@ -5079,9 +5079,9 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -5099,9 +5099,9 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="177"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
+      <c r="A10" s="235"/>
+      <c r="B10" s="235"/>
+      <c r="C10" s="235"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="15" t="s">
@@ -5119,9 +5119,9 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
+      <c r="A11" s="235"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="25" t="s">
@@ -5137,9 +5137,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
+      <c r="A12" s="235"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="25" t="s">
@@ -5155,9 +5155,9 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
+      <c r="A13" s="235"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="96" t="s">
@@ -5175,9 +5175,9 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="177"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
+      <c r="A14" s="235"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="25" t="s">
@@ -5196,9 +5196,9 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="177"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
+      <c r="A15" s="235"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="25" t="s">
@@ -5214,9 +5214,9 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
+      <c r="A16" s="235"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="235"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="169" t="s">
@@ -5234,9 +5234,9 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="177"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
+      <c r="A17" s="235"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="236"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="25" t="s">
@@ -5252,9 +5252,9 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="177"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="176" t="s">
+      <c r="A18" s="235"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="234" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="12"/>
@@ -5272,9 +5272,9 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="177"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
@@ -5290,9 +5290,9 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="177"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
+      <c r="A20" s="235"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="236"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="98" t="s">
@@ -5308,9 +5308,9 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="188" t="s">
+      <c r="A21" s="235"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="243" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="12"/>
@@ -5330,9 +5330,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="177"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="189"/>
+      <c r="A22" s="235"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="244"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="98" t="s">
@@ -5348,9 +5348,9 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="177"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="190"/>
+      <c r="A23" s="235"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="245"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="15" t="s">
@@ -5368,9 +5368,9 @@
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="177"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="179" t="s">
+      <c r="A24" s="235"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="185" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="12"/>
@@ -5388,9 +5388,9 @@
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="177"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="180"/>
+      <c r="A25" s="235"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
@@ -5406,9 +5406,9 @@
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="177"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="180"/>
+      <c r="A26" s="235"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="186"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
@@ -5424,9 +5424,9 @@
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="177"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="180"/>
+      <c r="A27" s="235"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
@@ -5442,9 +5442,9 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="177"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="180"/>
+      <c r="A28" s="235"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="186"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
@@ -5460,9 +5460,9 @@
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="177"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="180"/>
+      <c r="A29" s="235"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
@@ -5478,9 +5478,9 @@
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="181"/>
+      <c r="A30" s="236"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="187"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
@@ -5496,10 +5496,10 @@
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="179" t="s">
+      <c r="A31" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="234" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="101" t="s">
@@ -5522,8 +5522,8 @@
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="180"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="235"/>
       <c r="C32" s="12" t="s">
         <v>32</v>
       </c>
@@ -5544,8 +5544,8 @@
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="180"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="235"/>
       <c r="C33" s="101" t="s">
         <v>45</v>
       </c>
@@ -5566,8 +5566,8 @@
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="180"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="235"/>
       <c r="C34" s="15" t="s">
         <v>450</v>
       </c>
@@ -5588,8 +5588,8 @@
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="180"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="235"/>
       <c r="C35" s="101" t="s">
         <v>48</v>
       </c>
@@ -5610,8 +5610,8 @@
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="180"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="186"/>
+      <c r="B36" s="235"/>
       <c r="C36" s="101" t="s">
         <v>50</v>
       </c>
@@ -5632,11 +5632,11 @@
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="180"/>
-      <c r="B37" s="176" t="s">
+      <c r="A37" s="186"/>
+      <c r="B37" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="179" t="s">
+      <c r="C37" s="185" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="12"/>
@@ -5654,9 +5654,9 @@
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="180"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="180"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="235"/>
+      <c r="C38" s="186"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
@@ -5674,9 +5674,9 @@
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="180"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="181"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="187"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
@@ -5694,9 +5694,9 @@
       </c>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="180"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="185" t="s">
+      <c r="A40" s="186"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="240" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="12"/>
@@ -5714,9 +5714,9 @@
       <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="180"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="186"/>
+      <c r="A41" s="186"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="241"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="25" t="s">
@@ -5730,9 +5730,9 @@
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="180"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="186"/>
+      <c r="A42" s="186"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="241"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="25" t="s">
@@ -5746,9 +5746,9 @@
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="180"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="186"/>
+      <c r="A43" s="186"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="241"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="25" t="s">
@@ -5762,9 +5762,9 @@
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="180"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="186"/>
+      <c r="A44" s="186"/>
+      <c r="B44" s="235"/>
+      <c r="C44" s="241"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="25" t="s">
@@ -5778,9 +5778,9 @@
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="180"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="186"/>
+      <c r="A45" s="186"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="241"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="25" t="s">
@@ -5794,9 +5794,9 @@
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="180"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="187"/>
+      <c r="A46" s="186"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="242"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="25" t="s">
@@ -5810,9 +5810,9 @@
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" s="115" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="180"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="191" t="s">
+      <c r="A47" s="186"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="221" t="s">
         <v>539</v>
       </c>
       <c r="D47" s="98"/>
@@ -5832,9 +5832,9 @@
       <c r="L47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="180"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="192"/>
+      <c r="A48" s="186"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="222"/>
       <c r="D48" s="98"/>
       <c r="E48" s="98"/>
       <c r="F48" s="99" t="s">
@@ -5852,9 +5852,9 @@
       <c r="L48" s="98"/>
     </row>
     <row r="49" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="180"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="193"/>
+      <c r="A49" s="186"/>
+      <c r="B49" s="236"/>
+      <c r="C49" s="223"/>
       <c r="D49" s="98"/>
       <c r="E49" s="98"/>
       <c r="F49" s="99" t="s">
@@ -5872,11 +5872,11 @@
       <c r="L49" s="98"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="180"/>
-      <c r="B50" s="197" t="s">
+      <c r="A50" s="186"/>
+      <c r="B50" s="216" t="s">
         <v>586</v>
       </c>
-      <c r="C50" s="182" t="s">
+      <c r="C50" s="239" t="s">
         <v>587</v>
       </c>
       <c r="D50" s="12"/>
@@ -5898,9 +5898,9 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="180"/>
-      <c r="B51" s="180"/>
-      <c r="C51" s="183"/>
+      <c r="A51" s="186"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="218"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="19" t="s">
@@ -5920,9 +5920,9 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="180"/>
-      <c r="B52" s="180"/>
-      <c r="C52" s="184"/>
+      <c r="A52" s="186"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="219"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="19" t="s">
@@ -5942,9 +5942,9 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="180"/>
-      <c r="B53" s="180"/>
-      <c r="C53" s="198" t="s">
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="217" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="12"/>
@@ -5964,9 +5964,9 @@
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="180"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="183"/>
+      <c r="A54" s="186"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="218"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="19" t="s">
@@ -5984,9 +5984,9 @@
       <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="180"/>
-      <c r="B55" s="180"/>
-      <c r="C55" s="183"/>
+      <c r="A55" s="186"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="218"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="19" t="s">
@@ -6004,9 +6004,9 @@
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="180"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="184"/>
+      <c r="A56" s="186"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="219"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="19" t="s">
@@ -6026,8 +6026,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="181"/>
-      <c r="B57" s="181"/>
+      <c r="A57" s="187"/>
+      <c r="B57" s="187"/>
       <c r="C57" s="19" t="s">
         <v>72</v>
       </c>
@@ -6050,13 +6050,13 @@
       <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="198" t="s">
+      <c r="A58" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="198" t="s">
+      <c r="B58" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="201" t="s">
+      <c r="C58" s="228" t="s">
         <v>564</v>
       </c>
       <c r="D58" s="12"/>
@@ -6076,9 +6076,9 @@
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="183"/>
-      <c r="B59" s="183"/>
-      <c r="C59" s="202"/>
+      <c r="A59" s="218"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="229"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
@@ -6094,9 +6094,9 @@
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="183"/>
-      <c r="B60" s="183"/>
-      <c r="C60" s="202"/>
+      <c r="A60" s="218"/>
+      <c r="B60" s="218"/>
+      <c r="C60" s="229"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="25" t="s">
@@ -6114,9 +6114,9 @@
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
-      <c r="B61" s="183"/>
-      <c r="C61" s="202"/>
+      <c r="A61" s="218"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
@@ -6132,9 +6132,9 @@
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
-      <c r="B62" s="183"/>
-      <c r="C62" s="203"/>
+      <c r="A62" s="218"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="230"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
@@ -6148,9 +6148,9 @@
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="183"/>
-      <c r="B63" s="183"/>
-      <c r="C63" s="209" t="s">
+      <c r="A63" s="218"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="231" t="s">
         <v>451</v>
       </c>
       <c r="D63" s="12"/>
@@ -6166,9 +6166,9 @@
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="183"/>
-      <c r="B64" s="183"/>
-      <c r="C64" s="210"/>
+      <c r="A64" s="218"/>
+      <c r="B64" s="218"/>
+      <c r="C64" s="232"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="15" t="s">
@@ -6186,9 +6186,9 @@
       <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
-      <c r="B65" s="183"/>
-      <c r="C65" s="210"/>
+      <c r="A65" s="218"/>
+      <c r="B65" s="218"/>
+      <c r="C65" s="232"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="15" t="s">
@@ -6206,9 +6206,9 @@
       <c r="L65" s="12"/>
     </row>
     <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
-      <c r="B66" s="183"/>
-      <c r="C66" s="210"/>
+      <c r="A66" s="218"/>
+      <c r="B66" s="218"/>
+      <c r="C66" s="232"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="15" t="s">
@@ -6226,9 +6226,9 @@
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="183"/>
-      <c r="B67" s="183"/>
-      <c r="C67" s="211"/>
+      <c r="A67" s="218"/>
+      <c r="B67" s="218"/>
+      <c r="C67" s="233"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="106" t="s">
@@ -6246,9 +6246,9 @@
       <c r="L67" s="98"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="183"/>
-      <c r="B68" s="183"/>
-      <c r="C68" s="204" t="s">
+      <c r="A68" s="218"/>
+      <c r="B68" s="218"/>
+      <c r="C68" s="215" t="s">
         <v>565</v>
       </c>
       <c r="D68" s="12"/>
@@ -6268,9 +6268,9 @@
       <c r="L68" s="12"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
-      <c r="B69" s="183"/>
-      <c r="C69" s="181"/>
+      <c r="A69" s="218"/>
+      <c r="B69" s="218"/>
+      <c r="C69" s="187"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
@@ -6286,9 +6286,9 @@
       <c r="L69" s="12"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
-      <c r="B70" s="183"/>
-      <c r="C70" s="205" t="s">
+      <c r="A70" s="218"/>
+      <c r="B70" s="218"/>
+      <c r="C70" s="179" t="s">
         <v>599</v>
       </c>
       <c r="D70" s="12"/>
@@ -6304,9 +6304,9 @@
       <c r="L70" s="12"/>
     </row>
     <row r="71" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="183"/>
-      <c r="B71" s="183"/>
-      <c r="C71" s="206"/>
+      <c r="A71" s="218"/>
+      <c r="B71" s="218"/>
+      <c r="C71" s="181"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="99" t="s">
@@ -6324,9 +6324,9 @@
       <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="183"/>
-      <c r="B72" s="183"/>
-      <c r="C72" s="207" t="s">
+      <c r="A72" s="218"/>
+      <c r="B72" s="218"/>
+      <c r="C72" s="198" t="s">
         <v>86</v>
       </c>
       <c r="D72" s="12"/>
@@ -6344,9 +6344,9 @@
       <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
-      <c r="B73" s="183"/>
-      <c r="C73" s="208"/>
+      <c r="A73" s="218"/>
+      <c r="B73" s="218"/>
+      <c r="C73" s="200"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
@@ -6360,9 +6360,9 @@
       <c r="L73" s="12"/>
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
-      <c r="B74" s="183"/>
-      <c r="C74" s="207" t="s">
+      <c r="A74" s="218"/>
+      <c r="B74" s="218"/>
+      <c r="C74" s="198" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="12"/>
@@ -6378,9 +6378,9 @@
       <c r="L74" s="12"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="183"/>
-      <c r="B75" s="183"/>
-      <c r="C75" s="208"/>
+      <c r="A75" s="218"/>
+      <c r="B75" s="218"/>
+      <c r="C75" s="200"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
@@ -6394,8 +6394,8 @@
       <c r="L75" s="12"/>
     </row>
     <row r="76" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="183"/>
-      <c r="B76" s="183"/>
+      <c r="A76" s="218"/>
+      <c r="B76" s="218"/>
       <c r="C76" s="143" t="s">
         <v>736</v>
       </c>
@@ -6414,9 +6414,9 @@
       <c r="L76" s="12"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
-      <c r="B77" s="183"/>
-      <c r="C77" s="179" t="s">
+      <c r="A77" s="218"/>
+      <c r="B77" s="218"/>
+      <c r="C77" s="185" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="12"/>
@@ -6434,9 +6434,9 @@
       <c r="L77" s="12"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="181"/>
+      <c r="A78" s="218"/>
+      <c r="B78" s="218"/>
+      <c r="C78" s="187"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12" t="s">
@@ -6452,8 +6452,8 @@
       <c r="L78" s="12"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="183"/>
-      <c r="B79" s="183"/>
+      <c r="A79" s="218"/>
+      <c r="B79" s="218"/>
       <c r="C79" s="12" t="s">
         <v>67</v>
       </c>
@@ -6472,9 +6472,9 @@
       <c r="L79" s="12"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="183"/>
-      <c r="B80" s="183"/>
-      <c r="C80" s="212" t="s">
+      <c r="A80" s="218"/>
+      <c r="B80" s="218"/>
+      <c r="C80" s="224" t="s">
         <v>750</v>
       </c>
       <c r="D80" s="12"/>
@@ -6490,9 +6490,9 @@
       <c r="L80" s="12"/>
     </row>
     <row r="81" spans="1:12" s="168" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
-      <c r="B81" s="183"/>
-      <c r="C81" s="213"/>
+      <c r="A81" s="218"/>
+      <c r="B81" s="218"/>
+      <c r="C81" s="225"/>
       <c r="D81" s="108"/>
       <c r="E81" s="108"/>
       <c r="F81" s="167" t="s">
@@ -6510,9 +6510,9 @@
       <c r="L81" s="108"/>
     </row>
     <row r="82" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
-      <c r="B82" s="183"/>
-      <c r="C82" s="204" t="s">
+      <c r="A82" s="218"/>
+      <c r="B82" s="218"/>
+      <c r="C82" s="215" t="s">
         <v>566</v>
       </c>
       <c r="D82" s="12"/>
@@ -6530,9 +6530,9 @@
       <c r="L82" s="12"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="183"/>
-      <c r="B83" s="183"/>
-      <c r="C83" s="181"/>
+      <c r="A83" s="218"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="187"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
@@ -6546,9 +6546,9 @@
       <c r="L83" s="12"/>
     </row>
     <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="183"/>
-      <c r="B84" s="183"/>
-      <c r="C84" s="214" t="s">
+      <c r="A84" s="218"/>
+      <c r="B84" s="218"/>
+      <c r="C84" s="226" t="s">
         <v>459</v>
       </c>
       <c r="D84" s="12"/>
@@ -6564,9 +6564,9 @@
       <c r="L84" s="12"/>
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
-      <c r="B85" s="184"/>
-      <c r="C85" s="215"/>
+      <c r="A85" s="218"/>
+      <c r="B85" s="219"/>
+      <c r="C85" s="227"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12" t="s">
@@ -6580,11 +6580,11 @@
       <c r="L85" s="12"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
-      <c r="B86" s="198" t="s">
+      <c r="A86" s="218"/>
+      <c r="B86" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="204" t="s">
+      <c r="C86" s="215" t="s">
         <v>567</v>
       </c>
       <c r="D86" s="12"/>
@@ -6602,9 +6602,9 @@
       <c r="L86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="183"/>
-      <c r="B87" s="183"/>
-      <c r="C87" s="197"/>
+      <c r="A87" s="218"/>
+      <c r="B87" s="218"/>
+      <c r="C87" s="216"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="98" t="s">
@@ -6620,9 +6620,9 @@
       <c r="L87" s="12"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="183"/>
-      <c r="B88" s="183"/>
-      <c r="C88" s="180"/>
+      <c r="A88" s="218"/>
+      <c r="B88" s="218"/>
+      <c r="C88" s="186"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="99" t="s">
@@ -6640,9 +6640,9 @@
       <c r="L88" s="15"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
-      <c r="B89" s="183"/>
-      <c r="C89" s="198" t="s">
+      <c r="A89" s="218"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="217" t="s">
         <v>98</v>
       </c>
       <c r="D89" s="12"/>
@@ -6658,9 +6658,9 @@
       <c r="L89" s="12"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
-      <c r="B90" s="183"/>
-      <c r="C90" s="183"/>
+      <c r="A90" s="218"/>
+      <c r="B90" s="218"/>
+      <c r="C90" s="218"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12" t="s">
@@ -6674,9 +6674,9 @@
       <c r="L90" s="12"/>
     </row>
     <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="183"/>
-      <c r="B91" s="183"/>
-      <c r="C91" s="183"/>
+      <c r="A91" s="218"/>
+      <c r="B91" s="218"/>
+      <c r="C91" s="218"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="23" t="s">
@@ -6690,9 +6690,9 @@
       <c r="L91" s="12"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="183"/>
-      <c r="B92" s="183"/>
-      <c r="C92" s="184"/>
+      <c r="A92" s="218"/>
+      <c r="B92" s="218"/>
+      <c r="C92" s="219"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12" t="s">
@@ -6712,9 +6712,9 @@
       <c r="L92" s="12"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
-      <c r="B93" s="183"/>
-      <c r="C93" s="216" t="s">
+      <c r="A93" s="218"/>
+      <c r="B93" s="218"/>
+      <c r="C93" s="220" t="s">
         <v>569</v>
       </c>
       <c r="D93" s="12"/>
@@ -6730,9 +6730,9 @@
       <c r="L93" s="12"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
-      <c r="B94" s="183"/>
-      <c r="C94" s="183"/>
+      <c r="A94" s="218"/>
+      <c r="B94" s="218"/>
+      <c r="C94" s="218"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
@@ -6746,9 +6746,9 @@
       <c r="L94" s="12"/>
     </row>
     <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="183"/>
-      <c r="B95" s="183"/>
-      <c r="C95" s="183"/>
+      <c r="A95" s="218"/>
+      <c r="B95" s="218"/>
+      <c r="C95" s="218"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="23" t="s">
@@ -6762,9 +6762,9 @@
       <c r="L95" s="12"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="183"/>
-      <c r="B96" s="183"/>
-      <c r="C96" s="184"/>
+      <c r="A96" s="218"/>
+      <c r="B96" s="218"/>
+      <c r="C96" s="219"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12" t="s">
@@ -6782,9 +6782,9 @@
       <c r="L96" s="12"/>
     </row>
     <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
-      <c r="B97" s="183"/>
-      <c r="C97" s="207" t="s">
+      <c r="A97" s="218"/>
+      <c r="B97" s="218"/>
+      <c r="C97" s="198" t="s">
         <v>465</v>
       </c>
       <c r="D97" s="12"/>
@@ -6804,9 +6804,9 @@
       </c>
     </row>
     <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
-      <c r="B98" s="183"/>
-      <c r="C98" s="217"/>
+      <c r="A98" s="218"/>
+      <c r="B98" s="218"/>
+      <c r="C98" s="199"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
@@ -6820,9 +6820,9 @@
       <c r="L98" s="12"/>
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="183"/>
-      <c r="B99" s="183"/>
-      <c r="C99" s="217"/>
+      <c r="A99" s="218"/>
+      <c r="B99" s="218"/>
+      <c r="C99" s="199"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12" t="s">
@@ -6836,9 +6836,9 @@
       <c r="L99" s="12"/>
     </row>
     <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="183"/>
-      <c r="B100" s="183"/>
-      <c r="C100" s="217"/>
+      <c r="A100" s="218"/>
+      <c r="B100" s="218"/>
+      <c r="C100" s="199"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12" t="s">
@@ -6854,9 +6854,9 @@
       <c r="L100" s="12"/>
     </row>
     <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="183"/>
-      <c r="B101" s="183"/>
-      <c r="C101" s="217"/>
+      <c r="A101" s="218"/>
+      <c r="B101" s="218"/>
+      <c r="C101" s="199"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12" t="s">
@@ -6870,9 +6870,9 @@
       <c r="L101" s="12"/>
     </row>
     <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="183"/>
-      <c r="B102" s="183"/>
-      <c r="C102" s="217"/>
+      <c r="A102" s="218"/>
+      <c r="B102" s="218"/>
+      <c r="C102" s="199"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12" t="s">
@@ -6886,9 +6886,9 @@
       <c r="L102" s="12"/>
     </row>
     <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="183"/>
-      <c r="B103" s="183"/>
-      <c r="C103" s="217"/>
+      <c r="A103" s="218"/>
+      <c r="B103" s="218"/>
+      <c r="C103" s="199"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12" t="s">
@@ -6902,9 +6902,9 @@
       <c r="L103" s="12"/>
     </row>
     <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="183"/>
-      <c r="B104" s="183"/>
-      <c r="C104" s="208"/>
+      <c r="A104" s="218"/>
+      <c r="B104" s="218"/>
+      <c r="C104" s="200"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12" t="s">
@@ -6918,9 +6918,9 @@
       <c r="L104" s="12"/>
     </row>
     <row r="105" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
-      <c r="B105" s="183"/>
-      <c r="C105" s="191" t="s">
+      <c r="A105" s="218"/>
+      <c r="B105" s="218"/>
+      <c r="C105" s="221" t="s">
         <v>527</v>
       </c>
       <c r="D105" s="12"/>
@@ -6936,9 +6936,9 @@
       <c r="L105" s="12"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
-      <c r="B106" s="183"/>
-      <c r="C106" s="192"/>
+      <c r="A106" s="218"/>
+      <c r="B106" s="218"/>
+      <c r="C106" s="222"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="98" t="s">
@@ -6952,9 +6952,9 @@
       <c r="L106" s="12"/>
     </row>
     <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="183"/>
-      <c r="B107" s="183"/>
-      <c r="C107" s="192"/>
+      <c r="A107" s="218"/>
+      <c r="B107" s="218"/>
+      <c r="C107" s="222"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="98" t="s">
@@ -6972,9 +6972,9 @@
       <c r="L107" s="12"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="183"/>
-      <c r="B108" s="183"/>
-      <c r="C108" s="193"/>
+      <c r="A108" s="218"/>
+      <c r="B108" s="218"/>
+      <c r="C108" s="223"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="98" t="s">
@@ -6992,9 +6992,9 @@
       <c r="L108" s="12"/>
     </row>
     <row r="109" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
-      <c r="B109" s="183"/>
-      <c r="C109" s="191" t="s">
+      <c r="A109" s="218"/>
+      <c r="B109" s="218"/>
+      <c r="C109" s="221" t="s">
         <v>740</v>
       </c>
       <c r="D109" s="12"/>
@@ -7010,9 +7010,9 @@
       <c r="L109" s="12"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
-      <c r="B110" s="183"/>
-      <c r="C110" s="192"/>
+      <c r="A110" s="218"/>
+      <c r="B110" s="218"/>
+      <c r="C110" s="222"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="98" t="s">
@@ -7026,9 +7026,9 @@
       <c r="L110" s="12"/>
     </row>
     <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="183"/>
-      <c r="B111" s="183"/>
-      <c r="C111" s="192"/>
+      <c r="A111" s="218"/>
+      <c r="B111" s="218"/>
+      <c r="C111" s="222"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="98" t="s">
@@ -7046,9 +7046,9 @@
       <c r="L111" s="12"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="183"/>
-      <c r="B112" s="183"/>
-      <c r="C112" s="193"/>
+      <c r="A112" s="218"/>
+      <c r="B112" s="218"/>
+      <c r="C112" s="223"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="98" t="s">
@@ -7066,8 +7066,8 @@
       <c r="L112" s="12"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
-      <c r="B113" s="183"/>
+      <c r="A113" s="218"/>
+      <c r="B113" s="218"/>
       <c r="C113" s="12" t="s">
         <v>110</v>
       </c>
@@ -7086,9 +7086,9 @@
       <c r="L113" s="12"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
-      <c r="B114" s="183"/>
-      <c r="C114" s="198" t="s">
+      <c r="A114" s="218"/>
+      <c r="B114" s="218"/>
+      <c r="C114" s="217" t="s">
         <v>112</v>
       </c>
       <c r="D114" s="12"/>
@@ -7108,9 +7108,9 @@
       <c r="L114" s="12"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="183"/>
-      <c r="B115" s="183"/>
-      <c r="C115" s="183"/>
+      <c r="A115" s="218"/>
+      <c r="B115" s="218"/>
+      <c r="C115" s="218"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="25" t="s">
@@ -7126,9 +7126,9 @@
       <c r="L115" s="97"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="183"/>
-      <c r="B116" s="183"/>
-      <c r="C116" s="184"/>
+      <c r="A116" s="218"/>
+      <c r="B116" s="218"/>
+      <c r="C116" s="219"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12" t="s">
@@ -7144,9 +7144,9 @@
       <c r="L116" s="12"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
-      <c r="B117" s="183"/>
-      <c r="C117" s="205" t="s">
+      <c r="A117" s="218"/>
+      <c r="B117" s="218"/>
+      <c r="C117" s="179" t="s">
         <v>116</v>
       </c>
       <c r="D117" s="12"/>
@@ -7162,9 +7162,9 @@
       <c r="L117" s="12"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
-      <c r="B118" s="183"/>
-      <c r="C118" s="236"/>
+      <c r="A118" s="218"/>
+      <c r="B118" s="218"/>
+      <c r="C118" s="191"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12" t="s">
@@ -7180,9 +7180,9 @@
       <c r="L118" s="12"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="183"/>
-      <c r="B119" s="183"/>
-      <c r="C119" s="237"/>
+      <c r="A119" s="218"/>
+      <c r="B119" s="218"/>
+      <c r="C119" s="192"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
@@ -7196,9 +7196,9 @@
       <c r="L119" s="12"/>
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="183"/>
-      <c r="B120" s="183"/>
-      <c r="C120" s="238" t="s">
+      <c r="A120" s="218"/>
+      <c r="B120" s="218"/>
+      <c r="C120" s="193" t="s">
         <v>119</v>
       </c>
       <c r="D120" s="12"/>
@@ -7214,9 +7214,9 @@
       <c r="L120" s="12"/>
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
-      <c r="B121" s="183"/>
-      <c r="C121" s="239"/>
+      <c r="A121" s="218"/>
+      <c r="B121" s="218"/>
+      <c r="C121" s="194"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12" t="s">
@@ -7232,9 +7232,9 @@
       <c r="L121" s="12"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
-      <c r="B122" s="183"/>
-      <c r="C122" s="240"/>
+      <c r="A122" s="218"/>
+      <c r="B122" s="218"/>
+      <c r="C122" s="195"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12" t="s">
@@ -7248,8 +7248,8 @@
       <c r="L122" s="12"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="183"/>
-      <c r="B123" s="184"/>
+      <c r="A123" s="218"/>
+      <c r="B123" s="219"/>
       <c r="C123" s="164" t="s">
         <v>121</v>
       </c>
@@ -7268,11 +7268,11 @@
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="183"/>
-      <c r="B124" s="198" t="s">
+      <c r="A124" s="218"/>
+      <c r="B124" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="241" t="s">
+      <c r="C124" s="196" t="s">
         <v>470</v>
       </c>
       <c r="D124" s="12"/>
@@ -7292,9 +7292,9 @@
       </c>
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
-      <c r="B125" s="183"/>
-      <c r="C125" s="242"/>
+      <c r="A125" s="218"/>
+      <c r="B125" s="218"/>
+      <c r="C125" s="197"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12" t="s">
@@ -7310,8 +7310,8 @@
       <c r="L125" s="12"/>
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
-      <c r="B126" s="183"/>
+      <c r="A126" s="218"/>
+      <c r="B126" s="218"/>
       <c r="C126" s="123" t="s">
         <v>124</v>
       </c>
@@ -7330,8 +7330,8 @@
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="183"/>
-      <c r="B127" s="183"/>
+      <c r="A127" s="218"/>
+      <c r="B127" s="218"/>
       <c r="C127" s="120" t="s">
         <v>570</v>
       </c>
@@ -7350,8 +7350,8 @@
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="183"/>
-      <c r="B128" s="183"/>
+      <c r="A128" s="218"/>
+      <c r="B128" s="218"/>
       <c r="C128" s="120" t="s">
         <v>571</v>
       </c>
@@ -7372,8 +7372,8 @@
       </c>
     </row>
     <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="183"/>
-      <c r="B129" s="183"/>
+      <c r="A129" s="218"/>
+      <c r="B129" s="218"/>
       <c r="C129" s="120" t="s">
         <v>572</v>
       </c>
@@ -7392,9 +7392,9 @@
       <c r="L129" s="15"/>
     </row>
     <row r="130" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="183"/>
-      <c r="B130" s="183"/>
-      <c r="C130" s="207" t="s">
+      <c r="A130" s="218"/>
+      <c r="B130" s="218"/>
+      <c r="C130" s="198" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="12"/>
@@ -7414,9 +7414,9 @@
       </c>
     </row>
     <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="183"/>
-      <c r="B131" s="183"/>
-      <c r="C131" s="217"/>
+      <c r="A131" s="218"/>
+      <c r="B131" s="218"/>
+      <c r="C131" s="199"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="106" t="s">
@@ -7432,9 +7432,9 @@
       <c r="L131" s="25"/>
     </row>
     <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="183"/>
-      <c r="B132" s="183"/>
-      <c r="C132" s="217"/>
+      <c r="A132" s="218"/>
+      <c r="B132" s="218"/>
+      <c r="C132" s="199"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="106" t="s">
@@ -7450,9 +7450,9 @@
       </c>
     </row>
     <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="183"/>
-      <c r="B133" s="183"/>
-      <c r="C133" s="217"/>
+      <c r="A133" s="218"/>
+      <c r="B133" s="218"/>
+      <c r="C133" s="199"/>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="106" t="s">
@@ -7470,9 +7470,9 @@
       </c>
     </row>
     <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="183"/>
-      <c r="B134" s="183"/>
-      <c r="C134" s="217"/>
+      <c r="A134" s="218"/>
+      <c r="B134" s="218"/>
+      <c r="C134" s="199"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="99" t="s">
@@ -7486,9 +7486,9 @@
       <c r="L134" s="99"/>
     </row>
     <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="183"/>
-      <c r="B135" s="183"/>
-      <c r="C135" s="208"/>
+      <c r="A135" s="218"/>
+      <c r="B135" s="218"/>
+      <c r="C135" s="200"/>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="99" t="s">
@@ -7504,9 +7504,9 @@
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="183"/>
-      <c r="B136" s="183"/>
-      <c r="C136" s="205" t="s">
+      <c r="A136" s="218"/>
+      <c r="B136" s="218"/>
+      <c r="C136" s="179" t="s">
         <v>541</v>
       </c>
       <c r="D136" s="12"/>
@@ -7524,9 +7524,9 @@
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="183"/>
-      <c r="B137" s="183"/>
-      <c r="C137" s="236"/>
+      <c r="A137" s="218"/>
+      <c r="B137" s="218"/>
+      <c r="C137" s="191"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12" t="s">
@@ -7542,9 +7542,9 @@
       <c r="L137" s="12"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="183"/>
-      <c r="B138" s="183"/>
-      <c r="C138" s="236"/>
+      <c r="A138" s="218"/>
+      <c r="B138" s="218"/>
+      <c r="C138" s="191"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="98" t="s">
@@ -7560,9 +7560,9 @@
       <c r="L138" s="12"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="183"/>
-      <c r="B139" s="183"/>
-      <c r="C139" s="236"/>
+      <c r="A139" s="218"/>
+      <c r="B139" s="218"/>
+      <c r="C139" s="191"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
@@ -7578,9 +7578,9 @@
       <c r="L139" s="12"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="183"/>
-      <c r="B140" s="183"/>
-      <c r="C140" s="236"/>
+      <c r="A140" s="218"/>
+      <c r="B140" s="218"/>
+      <c r="C140" s="191"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="98" t="s">
@@ -7596,9 +7596,9 @@
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="183"/>
-      <c r="B141" s="183"/>
-      <c r="C141" s="236"/>
+      <c r="A141" s="218"/>
+      <c r="B141" s="218"/>
+      <c r="C141" s="191"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="98" t="s">
@@ -7614,9 +7614,9 @@
       <c r="L141" s="12"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="183"/>
-      <c r="B142" s="183"/>
-      <c r="C142" s="236"/>
+      <c r="A142" s="218"/>
+      <c r="B142" s="218"/>
+      <c r="C142" s="191"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="98" t="s">
@@ -7632,9 +7632,9 @@
       <c r="L142" s="12"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="183"/>
-      <c r="B143" s="183"/>
-      <c r="C143" s="237"/>
+      <c r="A143" s="218"/>
+      <c r="B143" s="218"/>
+      <c r="C143" s="192"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -7646,8 +7646,8 @@
       <c r="L143" s="12"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="183"/>
-      <c r="B144" s="183"/>
+      <c r="A144" s="218"/>
+      <c r="B144" s="218"/>
       <c r="C144" s="12" t="s">
         <v>110</v>
       </c>
@@ -7666,9 +7666,9 @@
       <c r="L144" s="12"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="183"/>
-      <c r="B145" s="183"/>
-      <c r="C145" s="205" t="s">
+      <c r="A145" s="218"/>
+      <c r="B145" s="218"/>
+      <c r="C145" s="179" t="s">
         <v>622</v>
       </c>
       <c r="D145" s="12"/>
@@ -7686,9 +7686,9 @@
       <c r="L145" s="110"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="183"/>
-      <c r="B146" s="183"/>
-      <c r="C146" s="232"/>
+      <c r="A146" s="218"/>
+      <c r="B146" s="218"/>
+      <c r="C146" s="180"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="99" t="s">
@@ -7704,9 +7704,9 @@
       <c r="L146" s="12"/>
     </row>
     <row r="147" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A147" s="183"/>
-      <c r="B147" s="183"/>
-      <c r="C147" s="206"/>
+      <c r="A147" s="218"/>
+      <c r="B147" s="218"/>
+      <c r="C147" s="181"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="113" t="s">
@@ -7726,9 +7726,9 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="183"/>
-      <c r="B148" s="183"/>
-      <c r="C148" s="205" t="s">
+      <c r="A148" s="218"/>
+      <c r="B148" s="218"/>
+      <c r="C148" s="179" t="s">
         <v>624</v>
       </c>
       <c r="D148" s="12"/>
@@ -7748,9 +7748,9 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="183"/>
-      <c r="B149" s="183"/>
-      <c r="C149" s="232"/>
+      <c r="A149" s="218"/>
+      <c r="B149" s="218"/>
+      <c r="C149" s="180"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
@@ -7766,9 +7766,9 @@
       <c r="L149" s="12"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="183"/>
-      <c r="B150" s="183"/>
-      <c r="C150" s="206"/>
+      <c r="A150" s="218"/>
+      <c r="B150" s="218"/>
+      <c r="C150" s="181"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="98" t="s">
@@ -7786,9 +7786,9 @@
       <c r="L150" s="12"/>
     </row>
     <row r="151" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="183"/>
-      <c r="B151" s="183"/>
-      <c r="C151" s="233" t="s">
+      <c r="A151" s="218"/>
+      <c r="B151" s="218"/>
+      <c r="C151" s="182" t="s">
         <v>513</v>
       </c>
       <c r="D151" s="12"/>
@@ -7808,9 +7808,9 @@
       </c>
     </row>
     <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="183"/>
-      <c r="B152" s="183"/>
-      <c r="C152" s="234"/>
+      <c r="A152" s="218"/>
+      <c r="B152" s="218"/>
+      <c r="C152" s="183"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
@@ -7826,9 +7826,9 @@
       <c r="L152" s="12"/>
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="183"/>
-      <c r="B153" s="183"/>
-      <c r="C153" s="235"/>
+      <c r="A153" s="218"/>
+      <c r="B153" s="218"/>
+      <c r="C153" s="184"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12" t="s">
@@ -7846,8 +7846,8 @@
       <c r="L153" s="12"/>
     </row>
     <row r="154" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="183"/>
-      <c r="B154" s="180" t="s">
+      <c r="A154" s="218"/>
+      <c r="B154" s="186" t="s">
         <v>137</v>
       </c>
       <c r="C154" s="102" t="s">
@@ -7870,8 +7870,8 @@
       <c r="L154" s="12"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="183"/>
-      <c r="B155" s="180"/>
+      <c r="A155" s="218"/>
+      <c r="B155" s="186"/>
       <c r="C155" s="12" t="s">
         <v>140</v>
       </c>
@@ -7892,8 +7892,8 @@
       <c r="L155" s="12"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="183"/>
-      <c r="B156" s="180"/>
+      <c r="A156" s="218"/>
+      <c r="B156" s="186"/>
       <c r="C156" s="12" t="s">
         <v>110</v>
       </c>
@@ -7912,8 +7912,8 @@
       <c r="L156" s="12"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="183"/>
-      <c r="B157" s="180"/>
+      <c r="A157" s="218"/>
+      <c r="B157" s="186"/>
       <c r="C157" s="12" t="s">
         <v>144</v>
       </c>
@@ -7934,8 +7934,8 @@
       <c r="L157" s="12"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="183"/>
-      <c r="B158" s="181"/>
+      <c r="A158" s="218"/>
+      <c r="B158" s="187"/>
       <c r="C158" s="12" t="s">
         <v>147</v>
       </c>
@@ -7952,11 +7952,11 @@
       <c r="L158" s="12"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="183"/>
-      <c r="B159" s="198" t="s">
+      <c r="A159" s="218"/>
+      <c r="B159" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="C159" s="179" t="s">
+      <c r="C159" s="185" t="s">
         <v>149</v>
       </c>
       <c r="D159" s="12"/>
@@ -7974,9 +7974,9 @@
       <c r="L159" s="12"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="183"/>
-      <c r="B160" s="183"/>
-      <c r="C160" s="180"/>
+      <c r="A160" s="218"/>
+      <c r="B160" s="218"/>
+      <c r="C160" s="186"/>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="12" t="s">
@@ -7992,9 +7992,9 @@
       <c r="L160" s="12"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="183"/>
-      <c r="B161" s="183"/>
-      <c r="C161" s="181"/>
+      <c r="A161" s="218"/>
+      <c r="B161" s="218"/>
+      <c r="C161" s="187"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12" t="s">
@@ -8010,8 +8010,8 @@
       <c r="L161" s="12"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" s="184"/>
-      <c r="B162" s="184"/>
+      <c r="A162" s="219"/>
+      <c r="B162" s="219"/>
       <c r="C162" s="12" t="s">
         <v>153</v>
       </c>
@@ -8030,16 +8030,16 @@
       <c r="L162" s="12"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" s="199" t="s">
+      <c r="A163" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="B163" s="194" t="s">
+      <c r="B163" s="201" t="s">
         <v>156</v>
       </c>
-      <c r="C163" s="223" t="s">
+      <c r="C163" s="188" t="s">
         <v>156</v>
       </c>
-      <c r="D163" s="194" t="s">
+      <c r="D163" s="201" t="s">
         <v>157</v>
       </c>
       <c r="F163" s="19" t="s">
@@ -8056,10 +8056,10 @@
       <c r="L163" s="18"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="200"/>
-      <c r="B164" s="195"/>
-      <c r="C164" s="224"/>
-      <c r="D164" s="196"/>
+      <c r="A164" s="238"/>
+      <c r="B164" s="203"/>
+      <c r="C164" s="189"/>
+      <c r="D164" s="202"/>
       <c r="F164" s="19" t="s">
         <v>158</v>
       </c>
@@ -8074,9 +8074,9 @@
       <c r="L164" s="18"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" s="200"/>
-      <c r="B165" s="195"/>
-      <c r="C165" s="224"/>
+      <c r="A165" s="238"/>
+      <c r="B165" s="203"/>
+      <c r="C165" s="189"/>
       <c r="D165" s="27" t="s">
         <v>159</v>
       </c>
@@ -8092,10 +8092,10 @@
       <c r="L165" s="18"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="200"/>
-      <c r="B166" s="195"/>
-      <c r="C166" s="224"/>
-      <c r="D166" s="194" t="s">
+      <c r="A166" s="238"/>
+      <c r="B166" s="203"/>
+      <c r="C166" s="189"/>
+      <c r="D166" s="201" t="s">
         <v>160</v>
       </c>
       <c r="F166" s="19" t="s">
@@ -8110,10 +8110,10 @@
       <c r="L166" s="18"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" s="200"/>
-      <c r="B167" s="195"/>
-      <c r="C167" s="224"/>
-      <c r="D167" s="195"/>
+      <c r="A167" s="238"/>
+      <c r="B167" s="203"/>
+      <c r="C167" s="189"/>
+      <c r="D167" s="203"/>
       <c r="F167" s="19" t="s">
         <v>162</v>
       </c>
@@ -8126,10 +8126,10 @@
       <c r="L167" s="18"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" s="200"/>
-      <c r="B168" s="195"/>
-      <c r="C168" s="224"/>
-      <c r="D168" s="196"/>
+      <c r="A168" s="238"/>
+      <c r="B168" s="203"/>
+      <c r="C168" s="189"/>
+      <c r="D168" s="202"/>
       <c r="F168" s="19" t="s">
         <v>163</v>
       </c>
@@ -8142,10 +8142,10 @@
       <c r="L168" s="18"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A169" s="200"/>
-      <c r="B169" s="195"/>
-      <c r="C169" s="224"/>
-      <c r="D169" s="194" t="s">
+      <c r="A169" s="238"/>
+      <c r="B169" s="203"/>
+      <c r="C169" s="189"/>
+      <c r="D169" s="201" t="s">
         <v>164</v>
       </c>
       <c r="F169" s="133" t="s">
@@ -8160,10 +8160,10 @@
       <c r="L169" s="18"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" s="200"/>
-      <c r="B170" s="195"/>
-      <c r="C170" s="224"/>
-      <c r="D170" s="196"/>
+      <c r="A170" s="238"/>
+      <c r="B170" s="203"/>
+      <c r="C170" s="189"/>
+      <c r="D170" s="202"/>
       <c r="F170" s="19" t="s">
         <v>166</v>
       </c>
@@ -8176,10 +8176,10 @@
       <c r="L170" s="29"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" s="200"/>
-      <c r="B171" s="195"/>
-      <c r="C171" s="224"/>
-      <c r="D171" s="194" t="s">
+      <c r="A171" s="238"/>
+      <c r="B171" s="203"/>
+      <c r="C171" s="189"/>
+      <c r="D171" s="201" t="s">
         <v>167</v>
       </c>
       <c r="F171" s="19" t="s">
@@ -8194,10 +8194,10 @@
       <c r="L171" s="18"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A172" s="200"/>
-      <c r="B172" s="195"/>
-      <c r="C172" s="224"/>
-      <c r="D172" s="196"/>
+      <c r="A172" s="238"/>
+      <c r="B172" s="203"/>
+      <c r="C172" s="189"/>
+      <c r="D172" s="202"/>
       <c r="F172" s="19" t="s">
         <v>166</v>
       </c>
@@ -8212,9 +8212,9 @@
       <c r="L172" s="18"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" s="200"/>
-      <c r="B173" s="195"/>
-      <c r="C173" s="224"/>
+      <c r="A173" s="238"/>
+      <c r="B173" s="203"/>
+      <c r="C173" s="189"/>
       <c r="D173" s="142"/>
       <c r="F173" s="19" t="s">
         <v>758</v>
@@ -8226,10 +8226,10 @@
       <c r="L173" s="18"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" s="200"/>
-      <c r="B174" s="195"/>
-      <c r="C174" s="224"/>
-      <c r="D174" s="194" t="s">
+      <c r="A174" s="238"/>
+      <c r="B174" s="203"/>
+      <c r="C174" s="189"/>
+      <c r="D174" s="201" t="s">
         <v>170</v>
       </c>
       <c r="F174" s="19" t="s">
@@ -8242,10 +8242,10 @@
       <c r="L174" s="18"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" s="200"/>
-      <c r="B175" s="195"/>
-      <c r="C175" s="224"/>
-      <c r="D175" s="195"/>
+      <c r="A175" s="238"/>
+      <c r="B175" s="203"/>
+      <c r="C175" s="189"/>
+      <c r="D175" s="203"/>
       <c r="F175" s="19" t="s">
         <v>172</v>
       </c>
@@ -8256,10 +8256,10 @@
       <c r="L175" s="18"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" s="200"/>
-      <c r="B176" s="195"/>
-      <c r="C176" s="224"/>
-      <c r="D176" s="195"/>
+      <c r="A176" s="238"/>
+      <c r="B176" s="203"/>
+      <c r="C176" s="189"/>
+      <c r="D176" s="203"/>
       <c r="F176" s="19" t="s">
         <v>173</v>
       </c>
@@ -8270,10 +8270,10 @@
       <c r="L176" s="18"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A177" s="200"/>
-      <c r="B177" s="195"/>
-      <c r="C177" s="224"/>
-      <c r="D177" s="195"/>
+      <c r="A177" s="238"/>
+      <c r="B177" s="203"/>
+      <c r="C177" s="189"/>
+      <c r="D177" s="203"/>
       <c r="F177" s="19" t="s">
         <v>161</v>
       </c>
@@ -8284,10 +8284,10 @@
       <c r="L177" s="18"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" s="200"/>
-      <c r="B178" s="195"/>
-      <c r="C178" s="224"/>
-      <c r="D178" s="195"/>
+      <c r="A178" s="238"/>
+      <c r="B178" s="203"/>
+      <c r="C178" s="189"/>
+      <c r="D178" s="203"/>
       <c r="F178" s="19" t="s">
         <v>174</v>
       </c>
@@ -8298,10 +8298,10 @@
       <c r="L178" s="18"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A179" s="200"/>
-      <c r="B179" s="195"/>
-      <c r="C179" s="225"/>
-      <c r="D179" s="196"/>
+      <c r="A179" s="238"/>
+      <c r="B179" s="203"/>
+      <c r="C179" s="190"/>
+      <c r="D179" s="202"/>
       <c r="F179" s="19" t="s">
         <v>175</v>
       </c>
@@ -8312,12 +8312,12 @@
       <c r="L179" s="31"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A180" s="200"/>
-      <c r="B180" s="195"/>
-      <c r="C180" s="220" t="s">
+      <c r="A180" s="238"/>
+      <c r="B180" s="203"/>
+      <c r="C180" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="D180" s="194" t="s">
+      <c r="D180" s="201" t="s">
         <v>176</v>
       </c>
       <c r="F180" s="19" t="s">
@@ -8330,10 +8330,10 @@
       <c r="L180" s="18"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A181" s="200"/>
-      <c r="B181" s="195"/>
-      <c r="C181" s="221"/>
-      <c r="D181" s="195"/>
+      <c r="A181" s="238"/>
+      <c r="B181" s="203"/>
+      <c r="C181" s="213"/>
+      <c r="D181" s="203"/>
       <c r="F181" s="19" t="s">
         <v>177</v>
       </c>
@@ -8344,10 +8344,10 @@
       <c r="L181" s="18"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A182" s="200"/>
-      <c r="B182" s="195"/>
-      <c r="C182" s="221"/>
-      <c r="D182" s="195"/>
+      <c r="A182" s="238"/>
+      <c r="B182" s="203"/>
+      <c r="C182" s="213"/>
+      <c r="D182" s="203"/>
       <c r="F182" s="19" t="s">
         <v>178</v>
       </c>
@@ -8358,10 +8358,10 @@
       <c r="L182" s="18"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" s="200"/>
-      <c r="B183" s="195"/>
-      <c r="C183" s="221"/>
-      <c r="D183" s="195"/>
+      <c r="A183" s="238"/>
+      <c r="B183" s="203"/>
+      <c r="C183" s="213"/>
+      <c r="D183" s="203"/>
       <c r="F183" s="19" t="s">
         <v>179</v>
       </c>
@@ -8372,10 +8372,10 @@
       <c r="L183" s="18"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" s="200"/>
-      <c r="B184" s="195"/>
-      <c r="C184" s="221"/>
-      <c r="D184" s="195"/>
+      <c r="A184" s="238"/>
+      <c r="B184" s="203"/>
+      <c r="C184" s="213"/>
+      <c r="D184" s="203"/>
       <c r="F184" s="32" t="s">
         <v>180</v>
       </c>
@@ -8386,10 +8386,10 @@
       <c r="L184" s="18"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" s="200"/>
-      <c r="B185" s="195"/>
-      <c r="C185" s="221"/>
-      <c r="D185" s="195"/>
+      <c r="A185" s="238"/>
+      <c r="B185" s="203"/>
+      <c r="C185" s="213"/>
+      <c r="D185" s="203"/>
       <c r="F185" s="32" t="s">
         <v>181</v>
       </c>
@@ -8400,10 +8400,10 @@
       <c r="L185" s="18"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" s="200"/>
-      <c r="B186" s="195"/>
-      <c r="C186" s="221"/>
-      <c r="D186" s="195"/>
+      <c r="A186" s="238"/>
+      <c r="B186" s="203"/>
+      <c r="C186" s="213"/>
+      <c r="D186" s="203"/>
       <c r="F186" s="32" t="s">
         <v>182</v>
       </c>
@@ -8414,10 +8414,10 @@
       <c r="L186" s="18"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A187" s="200"/>
-      <c r="B187" s="195"/>
-      <c r="C187" s="221"/>
-      <c r="D187" s="195"/>
+      <c r="A187" s="238"/>
+      <c r="B187" s="203"/>
+      <c r="C187" s="213"/>
+      <c r="D187" s="203"/>
       <c r="F187" s="19" t="s">
         <v>183</v>
       </c>
@@ -8428,10 +8428,10 @@
       <c r="L187" s="18"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A188" s="200"/>
-      <c r="B188" s="195"/>
-      <c r="C188" s="221"/>
-      <c r="D188" s="195"/>
+      <c r="A188" s="238"/>
+      <c r="B188" s="203"/>
+      <c r="C188" s="213"/>
+      <c r="D188" s="203"/>
       <c r="F188" s="19" t="s">
         <v>184</v>
       </c>
@@ -8442,10 +8442,10 @@
       <c r="L188" s="18"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A189" s="200"/>
-      <c r="B189" s="195"/>
-      <c r="C189" s="221"/>
-      <c r="D189" s="195"/>
+      <c r="A189" s="238"/>
+      <c r="B189" s="203"/>
+      <c r="C189" s="213"/>
+      <c r="D189" s="203"/>
       <c r="F189" s="19" t="s">
         <v>185</v>
       </c>
@@ -8456,10 +8456,10 @@
       <c r="L189" s="18"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" s="200"/>
-      <c r="B190" s="195"/>
-      <c r="C190" s="221"/>
-      <c r="D190" s="195"/>
+      <c r="A190" s="238"/>
+      <c r="B190" s="203"/>
+      <c r="C190" s="213"/>
+      <c r="D190" s="203"/>
       <c r="F190" s="19" t="s">
         <v>186</v>
       </c>
@@ -8470,10 +8470,10 @@
       <c r="L190" s="18"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A191" s="200"/>
-      <c r="B191" s="195"/>
-      <c r="C191" s="221"/>
-      <c r="D191" s="195"/>
+      <c r="A191" s="238"/>
+      <c r="B191" s="203"/>
+      <c r="C191" s="213"/>
+      <c r="D191" s="203"/>
       <c r="F191" s="19" t="s">
         <v>187</v>
       </c>
@@ -8484,10 +8484,10 @@
       <c r="L191" s="18"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" s="200"/>
-      <c r="B192" s="195"/>
-      <c r="C192" s="221"/>
-      <c r="D192" s="195"/>
+      <c r="A192" s="238"/>
+      <c r="B192" s="203"/>
+      <c r="C192" s="213"/>
+      <c r="D192" s="203"/>
       <c r="F192" s="19" t="s">
         <v>188</v>
       </c>
@@ -8498,10 +8498,10 @@
       <c r="L192" s="18"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A193" s="200"/>
-      <c r="B193" s="195"/>
-      <c r="C193" s="221"/>
-      <c r="D193" s="195"/>
+      <c r="A193" s="238"/>
+      <c r="B193" s="203"/>
+      <c r="C193" s="213"/>
+      <c r="D193" s="203"/>
       <c r="F193" s="19" t="s">
         <v>189</v>
       </c>
@@ -8512,10 +8512,10 @@
       <c r="L193" s="18"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A194" s="200"/>
-      <c r="B194" s="195"/>
-      <c r="C194" s="221"/>
-      <c r="D194" s="195"/>
+      <c r="A194" s="238"/>
+      <c r="B194" s="203"/>
+      <c r="C194" s="213"/>
+      <c r="D194" s="203"/>
       <c r="F194" s="19" t="s">
         <v>190</v>
       </c>
@@ -8526,10 +8526,10 @@
       <c r="L194" s="18"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A195" s="200"/>
-      <c r="B195" s="195"/>
-      <c r="C195" s="221"/>
-      <c r="D195" s="195"/>
+      <c r="A195" s="238"/>
+      <c r="B195" s="203"/>
+      <c r="C195" s="213"/>
+      <c r="D195" s="203"/>
       <c r="F195" s="19" t="s">
         <v>191</v>
       </c>
@@ -8540,10 +8540,10 @@
       <c r="L195" s="18"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A196" s="200"/>
-      <c r="B196" s="195"/>
-      <c r="C196" s="221"/>
-      <c r="D196" s="195"/>
+      <c r="A196" s="238"/>
+      <c r="B196" s="203"/>
+      <c r="C196" s="213"/>
+      <c r="D196" s="203"/>
       <c r="F196" s="19" t="s">
         <v>192</v>
       </c>
@@ -8554,10 +8554,10 @@
       <c r="L196" s="18"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A197" s="200"/>
-      <c r="B197" s="195"/>
-      <c r="C197" s="221"/>
-      <c r="D197" s="195"/>
+      <c r="A197" s="238"/>
+      <c r="B197" s="203"/>
+      <c r="C197" s="213"/>
+      <c r="D197" s="203"/>
       <c r="F197" s="19" t="s">
         <v>193</v>
       </c>
@@ -8568,10 +8568,10 @@
       <c r="L197" s="18"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A198" s="200"/>
-      <c r="B198" s="195"/>
-      <c r="C198" s="221"/>
-      <c r="D198" s="195"/>
+      <c r="A198" s="238"/>
+      <c r="B198" s="203"/>
+      <c r="C198" s="213"/>
+      <c r="D198" s="203"/>
       <c r="F198" s="19" t="s">
         <v>194</v>
       </c>
@@ -8582,10 +8582,10 @@
       <c r="L198" s="18"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A199" s="200"/>
-      <c r="B199" s="195"/>
-      <c r="C199" s="221"/>
-      <c r="D199" s="195"/>
+      <c r="A199" s="238"/>
+      <c r="B199" s="203"/>
+      <c r="C199" s="213"/>
+      <c r="D199" s="203"/>
       <c r="F199" s="19" t="s">
         <v>195</v>
       </c>
@@ -8596,10 +8596,10 @@
       <c r="L199" s="18"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" s="200"/>
-      <c r="B200" s="195"/>
-      <c r="C200" s="221"/>
-      <c r="D200" s="195"/>
+      <c r="A200" s="238"/>
+      <c r="B200" s="203"/>
+      <c r="C200" s="213"/>
+      <c r="D200" s="203"/>
       <c r="F200" s="19" t="s">
         <v>196</v>
       </c>
@@ -8610,10 +8610,10 @@
       <c r="L200" s="18"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A201" s="200"/>
-      <c r="B201" s="195"/>
-      <c r="C201" s="221"/>
-      <c r="D201" s="195"/>
+      <c r="A201" s="238"/>
+      <c r="B201" s="203"/>
+      <c r="C201" s="213"/>
+      <c r="D201" s="203"/>
       <c r="F201" s="19" t="s">
         <v>197</v>
       </c>
@@ -8624,10 +8624,10 @@
       <c r="L201" s="18"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="200"/>
-      <c r="B202" s="195"/>
-      <c r="C202" s="221"/>
-      <c r="D202" s="195"/>
+      <c r="A202" s="238"/>
+      <c r="B202" s="203"/>
+      <c r="C202" s="213"/>
+      <c r="D202" s="203"/>
       <c r="F202" s="19" t="s">
         <v>198</v>
       </c>
@@ -8638,10 +8638,10 @@
       <c r="L202" s="18"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A203" s="200"/>
-      <c r="B203" s="195"/>
-      <c r="C203" s="221"/>
-      <c r="D203" s="195"/>
+      <c r="A203" s="238"/>
+      <c r="B203" s="203"/>
+      <c r="C203" s="213"/>
+      <c r="D203" s="203"/>
       <c r="F203" s="19" t="s">
         <v>199</v>
       </c>
@@ -8652,10 +8652,10 @@
       <c r="L203" s="18"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A204" s="200"/>
-      <c r="B204" s="195"/>
-      <c r="C204" s="221"/>
-      <c r="D204" s="195"/>
+      <c r="A204" s="238"/>
+      <c r="B204" s="203"/>
+      <c r="C204" s="213"/>
+      <c r="D204" s="203"/>
       <c r="F204" s="19" t="s">
         <v>200</v>
       </c>
@@ -8666,10 +8666,10 @@
       <c r="L204" s="18"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="200"/>
-      <c r="B205" s="195"/>
-      <c r="C205" s="221"/>
-      <c r="D205" s="195"/>
+      <c r="A205" s="238"/>
+      <c r="B205" s="203"/>
+      <c r="C205" s="213"/>
+      <c r="D205" s="203"/>
       <c r="F205" s="19" t="s">
         <v>201</v>
       </c>
@@ -8680,10 +8680,10 @@
       <c r="L205" s="18"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A206" s="200"/>
-      <c r="B206" s="195"/>
-      <c r="C206" s="221"/>
-      <c r="D206" s="195"/>
+      <c r="A206" s="238"/>
+      <c r="B206" s="203"/>
+      <c r="C206" s="213"/>
+      <c r="D206" s="203"/>
       <c r="F206" s="19" t="s">
         <v>202</v>
       </c>
@@ -8694,10 +8694,10 @@
       <c r="L206" s="18"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A207" s="200"/>
-      <c r="B207" s="195"/>
-      <c r="C207" s="221"/>
-      <c r="D207" s="195"/>
+      <c r="A207" s="238"/>
+      <c r="B207" s="203"/>
+      <c r="C207" s="213"/>
+      <c r="D207" s="203"/>
       <c r="F207" s="19" t="s">
         <v>203</v>
       </c>
@@ -8708,10 +8708,10 @@
       <c r="L207" s="18"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A208" s="200"/>
-      <c r="B208" s="195"/>
-      <c r="C208" s="221"/>
-      <c r="D208" s="195"/>
+      <c r="A208" s="238"/>
+      <c r="B208" s="203"/>
+      <c r="C208" s="213"/>
+      <c r="D208" s="203"/>
       <c r="F208" s="19" t="s">
         <v>204</v>
       </c>
@@ -8722,10 +8722,10 @@
       <c r="L208" s="18"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" s="200"/>
-      <c r="B209" s="195"/>
-      <c r="C209" s="221"/>
-      <c r="D209" s="195"/>
+      <c r="A209" s="238"/>
+      <c r="B209" s="203"/>
+      <c r="C209" s="213"/>
+      <c r="D209" s="203"/>
       <c r="F209" s="19" t="s">
         <v>205</v>
       </c>
@@ -8736,10 +8736,10 @@
       <c r="L209" s="18"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="200"/>
-      <c r="B210" s="195"/>
-      <c r="C210" s="222"/>
-      <c r="D210" s="196"/>
+      <c r="A210" s="238"/>
+      <c r="B210" s="203"/>
+      <c r="C210" s="214"/>
+      <c r="D210" s="202"/>
       <c r="F210" s="19" t="s">
         <v>206</v>
       </c>
@@ -8750,12 +8750,12 @@
       <c r="L210" s="18"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" s="200"/>
-      <c r="B211" s="195"/>
-      <c r="C211" s="220" t="s">
+      <c r="A211" s="238"/>
+      <c r="B211" s="203"/>
+      <c r="C211" s="212" t="s">
         <v>207</v>
       </c>
-      <c r="D211" s="194" t="s">
+      <c r="D211" s="201" t="s">
         <v>207</v>
       </c>
       <c r="F211" s="19" t="s">
@@ -8768,10 +8768,10 @@
       <c r="L211" s="18"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="200"/>
-      <c r="B212" s="195"/>
-      <c r="C212" s="221"/>
-      <c r="D212" s="195"/>
+      <c r="A212" s="238"/>
+      <c r="B212" s="203"/>
+      <c r="C212" s="213"/>
+      <c r="D212" s="203"/>
       <c r="F212" s="19" t="s">
         <v>59</v>
       </c>
@@ -8782,10 +8782,10 @@
       <c r="L212" s="18"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" s="200"/>
-      <c r="B213" s="195"/>
-      <c r="C213" s="221"/>
-      <c r="D213" s="195"/>
+      <c r="A213" s="238"/>
+      <c r="B213" s="203"/>
+      <c r="C213" s="213"/>
+      <c r="D213" s="203"/>
       <c r="F213" s="19" t="s">
         <v>208</v>
       </c>
@@ -8796,10 +8796,10 @@
       <c r="L213" s="18"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" s="200"/>
-      <c r="B214" s="195"/>
-      <c r="C214" s="221"/>
-      <c r="D214" s="195"/>
+      <c r="A214" s="238"/>
+      <c r="B214" s="203"/>
+      <c r="C214" s="213"/>
+      <c r="D214" s="203"/>
       <c r="F214" s="19" t="s">
         <v>183</v>
       </c>
@@ -8810,10 +8810,10 @@
       <c r="L214" s="18"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A215" s="200"/>
-      <c r="B215" s="195"/>
-      <c r="C215" s="221"/>
-      <c r="D215" s="195"/>
+      <c r="A215" s="238"/>
+      <c r="B215" s="203"/>
+      <c r="C215" s="213"/>
+      <c r="D215" s="203"/>
       <c r="F215" s="19" t="s">
         <v>180</v>
       </c>
@@ -8824,10 +8824,10 @@
       <c r="L215" s="18"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A216" s="200"/>
-      <c r="B216" s="195"/>
-      <c r="C216" s="221"/>
-      <c r="D216" s="195"/>
+      <c r="A216" s="238"/>
+      <c r="B216" s="203"/>
+      <c r="C216" s="213"/>
+      <c r="D216" s="203"/>
       <c r="F216" s="19" t="s">
         <v>178</v>
       </c>
@@ -8838,10 +8838,10 @@
       <c r="L216" s="18"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A217" s="200"/>
-      <c r="B217" s="195"/>
-      <c r="C217" s="221"/>
-      <c r="D217" s="195"/>
+      <c r="A217" s="238"/>
+      <c r="B217" s="203"/>
+      <c r="C217" s="213"/>
+      <c r="D217" s="203"/>
       <c r="F217" s="19" t="s">
         <v>185</v>
       </c>
@@ -8852,10 +8852,10 @@
       <c r="L217" s="18"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" s="200"/>
-      <c r="B218" s="195"/>
-      <c r="C218" s="221"/>
-      <c r="D218" s="195"/>
+      <c r="A218" s="238"/>
+      <c r="B218" s="203"/>
+      <c r="C218" s="213"/>
+      <c r="D218" s="203"/>
       <c r="F218" s="19" t="s">
         <v>209</v>
       </c>
@@ -8866,10 +8866,10 @@
       <c r="L218" s="18"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" s="200"/>
-      <c r="B219" s="195"/>
-      <c r="C219" s="221"/>
-      <c r="D219" s="195"/>
+      <c r="A219" s="238"/>
+      <c r="B219" s="203"/>
+      <c r="C219" s="213"/>
+      <c r="D219" s="203"/>
       <c r="F219" s="19" t="s">
         <v>210</v>
       </c>
@@ -8880,10 +8880,10 @@
       <c r="L219" s="18"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A220" s="200"/>
-      <c r="B220" s="195"/>
-      <c r="C220" s="221"/>
-      <c r="D220" s="195"/>
+      <c r="A220" s="238"/>
+      <c r="B220" s="203"/>
+      <c r="C220" s="213"/>
+      <c r="D220" s="203"/>
       <c r="F220" s="19" t="s">
         <v>211</v>
       </c>
@@ -8894,10 +8894,10 @@
       <c r="L220" s="18"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A221" s="200"/>
-      <c r="B221" s="195"/>
-      <c r="C221" s="221"/>
-      <c r="D221" s="195"/>
+      <c r="A221" s="238"/>
+      <c r="B221" s="203"/>
+      <c r="C221" s="213"/>
+      <c r="D221" s="203"/>
       <c r="F221" s="19" t="s">
         <v>212</v>
       </c>
@@ -8908,10 +8908,10 @@
       <c r="L221" s="18"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A222" s="200"/>
-      <c r="B222" s="195"/>
-      <c r="C222" s="221"/>
-      <c r="D222" s="195"/>
+      <c r="A222" s="238"/>
+      <c r="B222" s="203"/>
+      <c r="C222" s="213"/>
+      <c r="D222" s="203"/>
       <c r="F222" s="19" t="s">
         <v>203</v>
       </c>
@@ -8922,10 +8922,10 @@
       <c r="L222" s="18"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" s="200"/>
-      <c r="B223" s="195"/>
-      <c r="C223" s="221"/>
-      <c r="D223" s="195"/>
+      <c r="A223" s="238"/>
+      <c r="B223" s="203"/>
+      <c r="C223" s="213"/>
+      <c r="D223" s="203"/>
       <c r="F223" s="19" t="s">
         <v>204</v>
       </c>
@@ -8936,10 +8936,10 @@
       <c r="L223" s="18"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A224" s="200"/>
-      <c r="B224" s="195"/>
-      <c r="C224" s="221"/>
-      <c r="D224" s="195"/>
+      <c r="A224" s="238"/>
+      <c r="B224" s="203"/>
+      <c r="C224" s="213"/>
+      <c r="D224" s="203"/>
       <c r="F224" s="19" t="s">
         <v>205</v>
       </c>
@@ -8950,10 +8950,10 @@
       <c r="L224" s="18"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A225" s="200"/>
-      <c r="B225" s="195"/>
-      <c r="C225" s="221"/>
-      <c r="D225" s="195"/>
+      <c r="A225" s="238"/>
+      <c r="B225" s="203"/>
+      <c r="C225" s="213"/>
+      <c r="D225" s="203"/>
       <c r="F225" s="19" t="s">
         <v>206</v>
       </c>
@@ -8964,10 +8964,10 @@
       <c r="L225" s="18"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A226" s="200"/>
-      <c r="B226" s="195"/>
-      <c r="C226" s="221"/>
-      <c r="D226" s="195"/>
+      <c r="A226" s="238"/>
+      <c r="B226" s="203"/>
+      <c r="C226" s="213"/>
+      <c r="D226" s="203"/>
       <c r="F226" s="19" t="s">
         <v>213</v>
       </c>
@@ -8978,10 +8978,10 @@
       <c r="L226" s="18"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A227" s="200"/>
-      <c r="B227" s="195"/>
-      <c r="C227" s="222"/>
-      <c r="D227" s="196"/>
+      <c r="A227" s="238"/>
+      <c r="B227" s="203"/>
+      <c r="C227" s="214"/>
+      <c r="D227" s="202"/>
       <c r="F227" s="19" t="s">
         <v>198</v>
       </c>
@@ -8992,8 +8992,8 @@
       <c r="L227" s="18"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="200"/>
-      <c r="B228" s="195"/>
+      <c r="A228" s="238"/>
+      <c r="B228" s="203"/>
       <c r="C228" s="122" t="s">
         <v>625</v>
       </c>
@@ -9008,8 +9008,8 @@
       <c r="L228" s="18"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="200"/>
-      <c r="B229" s="195"/>
+      <c r="A229" s="238"/>
+      <c r="B229" s="203"/>
       <c r="C229" s="122" t="s">
         <v>626</v>
       </c>
@@ -9024,12 +9024,12 @@
       <c r="L229" s="18"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A230" s="200"/>
-      <c r="B230" s="195"/>
-      <c r="C230" s="223" t="s">
+      <c r="A230" s="238"/>
+      <c r="B230" s="203"/>
+      <c r="C230" s="188" t="s">
         <v>214</v>
       </c>
-      <c r="D230" s="194" t="s">
+      <c r="D230" s="201" t="s">
         <v>214</v>
       </c>
       <c r="F230" s="19" t="s">
@@ -9042,10 +9042,10 @@
       <c r="L230" s="18"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A231" s="200"/>
-      <c r="B231" s="195"/>
-      <c r="C231" s="224"/>
-      <c r="D231" s="195"/>
+      <c r="A231" s="238"/>
+      <c r="B231" s="203"/>
+      <c r="C231" s="189"/>
+      <c r="D231" s="203"/>
       <c r="F231" s="19" t="s">
         <v>215</v>
       </c>
@@ -9056,10 +9056,10 @@
       <c r="L231" s="18"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A232" s="200"/>
-      <c r="B232" s="195"/>
-      <c r="C232" s="224"/>
-      <c r="D232" s="195"/>
+      <c r="A232" s="238"/>
+      <c r="B232" s="203"/>
+      <c r="C232" s="189"/>
+      <c r="D232" s="203"/>
       <c r="F232" s="19" t="s">
         <v>104</v>
       </c>
@@ -9070,10 +9070,10 @@
       <c r="L232" s="18"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A233" s="200"/>
-      <c r="B233" s="195"/>
-      <c r="C233" s="224"/>
-      <c r="D233" s="195"/>
+      <c r="A233" s="238"/>
+      <c r="B233" s="203"/>
+      <c r="C233" s="189"/>
+      <c r="D233" s="203"/>
       <c r="F233" s="19" t="s">
         <v>177</v>
       </c>
@@ -9084,10 +9084,10 @@
       <c r="L233" s="18"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A234" s="200"/>
-      <c r="B234" s="195"/>
-      <c r="C234" s="224"/>
-      <c r="D234" s="195"/>
+      <c r="A234" s="238"/>
+      <c r="B234" s="203"/>
+      <c r="C234" s="189"/>
+      <c r="D234" s="203"/>
       <c r="F234" s="19" t="s">
         <v>180</v>
       </c>
@@ -9098,10 +9098,10 @@
       <c r="L234" s="18"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="200"/>
-      <c r="B235" s="195"/>
-      <c r="C235" s="224"/>
-      <c r="D235" s="195"/>
+      <c r="A235" s="238"/>
+      <c r="B235" s="203"/>
+      <c r="C235" s="189"/>
+      <c r="D235" s="203"/>
       <c r="F235" s="19" t="s">
         <v>216</v>
       </c>
@@ -9112,10 +9112,10 @@
       <c r="L235" s="18"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A236" s="200"/>
-      <c r="B236" s="195"/>
-      <c r="C236" s="224"/>
-      <c r="D236" s="195"/>
+      <c r="A236" s="238"/>
+      <c r="B236" s="203"/>
+      <c r="C236" s="189"/>
+      <c r="D236" s="203"/>
       <c r="F236" s="19" t="s">
         <v>198</v>
       </c>
@@ -9126,10 +9126,10 @@
       <c r="L236" s="18"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A237" s="200"/>
-      <c r="B237" s="195"/>
-      <c r="C237" s="224"/>
-      <c r="D237" s="195"/>
+      <c r="A237" s="238"/>
+      <c r="B237" s="203"/>
+      <c r="C237" s="189"/>
+      <c r="D237" s="203"/>
       <c r="F237" s="19" t="s">
         <v>217</v>
       </c>
@@ -9140,10 +9140,10 @@
       <c r="L237" s="18"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A238" s="200"/>
-      <c r="B238" s="195"/>
-      <c r="C238" s="224"/>
-      <c r="D238" s="195"/>
+      <c r="A238" s="238"/>
+      <c r="B238" s="203"/>
+      <c r="C238" s="189"/>
+      <c r="D238" s="203"/>
       <c r="F238" s="19" t="s">
         <v>218</v>
       </c>
@@ -9154,10 +9154,10 @@
       <c r="L238" s="18"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A239" s="200"/>
-      <c r="B239" s="195"/>
-      <c r="C239" s="224"/>
-      <c r="D239" s="195"/>
+      <c r="A239" s="238"/>
+      <c r="B239" s="203"/>
+      <c r="C239" s="189"/>
+      <c r="D239" s="203"/>
       <c r="F239" s="19" t="s">
         <v>219</v>
       </c>
@@ -9168,10 +9168,10 @@
       <c r="L239" s="18"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A240" s="200"/>
-      <c r="B240" s="195"/>
-      <c r="C240" s="224"/>
-      <c r="D240" s="195"/>
+      <c r="A240" s="238"/>
+      <c r="B240" s="203"/>
+      <c r="C240" s="189"/>
+      <c r="D240" s="203"/>
       <c r="F240" s="19" t="s">
         <v>47</v>
       </c>
@@ -9182,10 +9182,10 @@
       <c r="L240" s="18"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A241" s="200"/>
-      <c r="B241" s="195"/>
-      <c r="C241" s="224"/>
-      <c r="D241" s="195"/>
+      <c r="A241" s="238"/>
+      <c r="B241" s="203"/>
+      <c r="C241" s="189"/>
+      <c r="D241" s="203"/>
       <c r="F241" s="19" t="s">
         <v>220</v>
       </c>
@@ -9196,10 +9196,10 @@
       <c r="L241" s="18"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A242" s="200"/>
-      <c r="B242" s="195"/>
-      <c r="C242" s="224"/>
-      <c r="D242" s="195"/>
+      <c r="A242" s="238"/>
+      <c r="B242" s="203"/>
+      <c r="C242" s="189"/>
+      <c r="D242" s="203"/>
       <c r="F242" s="19" t="s">
         <v>221</v>
       </c>
@@ -9210,10 +9210,10 @@
       <c r="L242" s="18"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A243" s="200"/>
-      <c r="B243" s="195"/>
-      <c r="C243" s="224"/>
-      <c r="D243" s="195"/>
+      <c r="A243" s="238"/>
+      <c r="B243" s="203"/>
+      <c r="C243" s="189"/>
+      <c r="D243" s="203"/>
       <c r="F243" s="19" t="s">
         <v>109</v>
       </c>
@@ -9224,10 +9224,10 @@
       <c r="L243" s="18"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A244" s="200"/>
-      <c r="B244" s="195"/>
-      <c r="C244" s="224"/>
-      <c r="D244" s="195"/>
+      <c r="A244" s="238"/>
+      <c r="B244" s="203"/>
+      <c r="C244" s="189"/>
+      <c r="D244" s="203"/>
       <c r="F244" s="19" t="s">
         <v>222</v>
       </c>
@@ -9238,10 +9238,10 @@
       <c r="L244" s="18"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A245" s="200"/>
-      <c r="B245" s="195"/>
-      <c r="C245" s="224"/>
-      <c r="D245" s="195"/>
+      <c r="A245" s="238"/>
+      <c r="B245" s="203"/>
+      <c r="C245" s="189"/>
+      <c r="D245" s="203"/>
       <c r="F245" s="19" t="s">
         <v>223</v>
       </c>
@@ -9252,10 +9252,10 @@
       <c r="L245" s="18"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A246" s="200"/>
-      <c r="B246" s="195"/>
-      <c r="C246" s="224"/>
-      <c r="D246" s="195"/>
+      <c r="A246" s="238"/>
+      <c r="B246" s="203"/>
+      <c r="C246" s="189"/>
+      <c r="D246" s="203"/>
       <c r="F246" s="19" t="s">
         <v>224</v>
       </c>
@@ -9266,10 +9266,10 @@
       <c r="L246" s="18"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A247" s="200"/>
-      <c r="B247" s="195"/>
-      <c r="C247" s="224"/>
-      <c r="D247" s="195"/>
+      <c r="A247" s="238"/>
+      <c r="B247" s="203"/>
+      <c r="C247" s="189"/>
+      <c r="D247" s="203"/>
       <c r="F247" s="19" t="s">
         <v>225</v>
       </c>
@@ -9280,10 +9280,10 @@
       <c r="L247" s="18"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A248" s="200"/>
-      <c r="B248" s="195"/>
-      <c r="C248" s="224"/>
-      <c r="D248" s="195"/>
+      <c r="A248" s="238"/>
+      <c r="B248" s="203"/>
+      <c r="C248" s="189"/>
+      <c r="D248" s="203"/>
       <c r="F248" s="19" t="s">
         <v>226</v>
       </c>
@@ -9294,10 +9294,10 @@
       <c r="L248" s="18"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A249" s="200"/>
-      <c r="B249" s="195"/>
-      <c r="C249" s="224"/>
-      <c r="D249" s="195"/>
+      <c r="A249" s="238"/>
+      <c r="B249" s="203"/>
+      <c r="C249" s="189"/>
+      <c r="D249" s="203"/>
       <c r="F249" s="19" t="s">
         <v>227</v>
       </c>
@@ -9308,10 +9308,10 @@
       <c r="L249" s="18"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A250" s="200"/>
-      <c r="B250" s="195"/>
-      <c r="C250" s="225"/>
-      <c r="D250" s="196"/>
+      <c r="A250" s="238"/>
+      <c r="B250" s="203"/>
+      <c r="C250" s="190"/>
+      <c r="D250" s="202"/>
       <c r="F250" s="19" t="s">
         <v>228</v>
       </c>
@@ -9322,7 +9322,7 @@
       <c r="L250" s="18"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A251" s="194" t="s">
+      <c r="A251" s="201" t="s">
         <v>485</v>
       </c>
       <c r="B251" s="33" t="s">
@@ -9338,14 +9338,14 @@
       <c r="L251" s="18"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A252" s="195"/>
-      <c r="B252" s="194" t="s">
+      <c r="A252" s="203"/>
+      <c r="B252" s="201" t="s">
         <v>230</v>
       </c>
-      <c r="C252" s="194" t="s">
+      <c r="C252" s="201" t="s">
         <v>231</v>
       </c>
-      <c r="D252" s="194"/>
+      <c r="D252" s="201"/>
       <c r="F252" s="19" t="s">
         <v>232</v>
       </c>
@@ -9358,10 +9358,10 @@
       <c r="L252" s="18"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A253" s="195"/>
-      <c r="B253" s="195"/>
-      <c r="C253" s="195"/>
-      <c r="D253" s="195"/>
+      <c r="A253" s="203"/>
+      <c r="B253" s="203"/>
+      <c r="C253" s="203"/>
+      <c r="D253" s="203"/>
       <c r="F253" s="19" t="s">
         <v>233</v>
       </c>
@@ -9374,10 +9374,10 @@
       <c r="L253" s="18"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A254" s="195"/>
-      <c r="B254" s="195"/>
-      <c r="C254" s="195"/>
-      <c r="D254" s="195"/>
+      <c r="A254" s="203"/>
+      <c r="B254" s="203"/>
+      <c r="C254" s="203"/>
+      <c r="D254" s="203"/>
       <c r="F254" s="19" t="s">
         <v>234</v>
       </c>
@@ -9390,10 +9390,10 @@
       <c r="L254" s="18"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A255" s="195"/>
-      <c r="B255" s="195"/>
-      <c r="C255" s="195"/>
-      <c r="D255" s="195"/>
+      <c r="A255" s="203"/>
+      <c r="B255" s="203"/>
+      <c r="C255" s="203"/>
+      <c r="D255" s="203"/>
       <c r="F255" s="34" t="s">
         <v>478</v>
       </c>
@@ -9406,10 +9406,10 @@
       <c r="L255" s="37"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A256" s="195"/>
-      <c r="B256" s="195"/>
-      <c r="C256" s="195"/>
-      <c r="D256" s="195"/>
+      <c r="A256" s="203"/>
+      <c r="B256" s="203"/>
+      <c r="C256" s="203"/>
+      <c r="D256" s="203"/>
       <c r="F256" s="34" t="s">
         <v>479</v>
       </c>
@@ -9422,10 +9422,10 @@
       <c r="L256" s="37"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A257" s="195"/>
-      <c r="B257" s="195"/>
-      <c r="C257" s="195"/>
-      <c r="D257" s="195"/>
+      <c r="A257" s="203"/>
+      <c r="B257" s="203"/>
+      <c r="C257" s="203"/>
+      <c r="D257" s="203"/>
       <c r="F257" s="34" t="s">
         <v>480</v>
       </c>
@@ -9438,10 +9438,10 @@
       <c r="L257" s="37"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A258" s="195"/>
-      <c r="B258" s="195"/>
-      <c r="C258" s="195"/>
-      <c r="D258" s="195"/>
+      <c r="A258" s="203"/>
+      <c r="B258" s="203"/>
+      <c r="C258" s="203"/>
+      <c r="D258" s="203"/>
       <c r="F258" s="132" t="s">
         <v>704</v>
       </c>
@@ -9452,10 +9452,10 @@
       <c r="L258" s="37"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A259" s="195"/>
-      <c r="B259" s="195"/>
-      <c r="C259" s="195"/>
-      <c r="D259" s="195"/>
+      <c r="A259" s="203"/>
+      <c r="B259" s="203"/>
+      <c r="C259" s="203"/>
+      <c r="D259" s="203"/>
       <c r="F259" s="34" t="s">
         <v>67</v>
       </c>
@@ -9466,10 +9466,10 @@
       <c r="L259" s="37"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A260" s="195"/>
-      <c r="B260" s="195"/>
-      <c r="C260" s="195"/>
-      <c r="D260" s="195"/>
+      <c r="A260" s="203"/>
+      <c r="B260" s="203"/>
+      <c r="C260" s="203"/>
+      <c r="D260" s="203"/>
       <c r="F260" s="34" t="s">
         <v>235</v>
       </c>
@@ -9480,10 +9480,10 @@
       <c r="L260" s="37"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A261" s="195"/>
-      <c r="B261" s="195"/>
-      <c r="C261" s="196"/>
-      <c r="D261" s="196"/>
+      <c r="A261" s="203"/>
+      <c r="B261" s="203"/>
+      <c r="C261" s="202"/>
+      <c r="D261" s="202"/>
       <c r="F261" s="34" t="s">
         <v>236</v>
       </c>
@@ -9494,8 +9494,8 @@
       <c r="L261" s="37"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A262" s="195"/>
-      <c r="B262" s="195"/>
+      <c r="A262" s="203"/>
+      <c r="B262" s="203"/>
       <c r="C262" s="38" t="s">
         <v>237</v>
       </c>
@@ -9508,12 +9508,12 @@
       <c r="L262" s="37"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A263" s="195"/>
-      <c r="B263" s="195"/>
-      <c r="C263" s="226" t="s">
+      <c r="A263" s="203"/>
+      <c r="B263" s="203"/>
+      <c r="C263" s="204" t="s">
         <v>238</v>
       </c>
-      <c r="D263" s="226"/>
+      <c r="D263" s="204"/>
       <c r="F263" s="34" t="s">
         <v>239</v>
       </c>
@@ -9526,10 +9526,10 @@
       <c r="L263" s="37"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A264" s="195"/>
-      <c r="B264" s="195"/>
-      <c r="C264" s="227"/>
-      <c r="D264" s="227"/>
+      <c r="A264" s="203"/>
+      <c r="B264" s="203"/>
+      <c r="C264" s="206"/>
+      <c r="D264" s="206"/>
       <c r="F264" s="34" t="s">
         <v>240</v>
       </c>
@@ -9540,10 +9540,10 @@
       <c r="L264" s="37"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A265" s="195"/>
-      <c r="B265" s="195"/>
-      <c r="C265" s="227"/>
-      <c r="D265" s="227"/>
+      <c r="A265" s="203"/>
+      <c r="B265" s="203"/>
+      <c r="C265" s="206"/>
+      <c r="D265" s="206"/>
       <c r="F265" s="34" t="s">
         <v>478</v>
       </c>
@@ -9556,10 +9556,10 @@
       <c r="L265" s="37"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A266" s="195"/>
-      <c r="B266" s="195"/>
-      <c r="C266" s="227"/>
-      <c r="D266" s="227"/>
+      <c r="A266" s="203"/>
+      <c r="B266" s="203"/>
+      <c r="C266" s="206"/>
+      <c r="D266" s="206"/>
       <c r="F266" s="34" t="s">
         <v>482</v>
       </c>
@@ -9570,10 +9570,10 @@
       <c r="L266" s="37"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A267" s="195"/>
-      <c r="B267" s="195"/>
-      <c r="C267" s="227"/>
-      <c r="D267" s="227"/>
+      <c r="A267" s="203"/>
+      <c r="B267" s="203"/>
+      <c r="C267" s="206"/>
+      <c r="D267" s="206"/>
       <c r="F267" s="132" t="s">
         <v>748</v>
       </c>
@@ -9586,10 +9586,10 @@
       <c r="L267" s="37"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A268" s="195"/>
-      <c r="B268" s="195"/>
-      <c r="C268" s="227"/>
-      <c r="D268" s="227"/>
+      <c r="A268" s="203"/>
+      <c r="B268" s="203"/>
+      <c r="C268" s="206"/>
+      <c r="D268" s="206"/>
       <c r="F268" s="34" t="s">
         <v>483</v>
       </c>
@@ -9600,10 +9600,10 @@
       <c r="L268" s="37"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A269" s="195"/>
-      <c r="B269" s="195"/>
-      <c r="C269" s="227"/>
-      <c r="D269" s="227"/>
+      <c r="A269" s="203"/>
+      <c r="B269" s="203"/>
+      <c r="C269" s="206"/>
+      <c r="D269" s="206"/>
       <c r="F269" s="34" t="s">
         <v>705</v>
       </c>
@@ -9616,10 +9616,10 @@
       <c r="L269" s="37"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A270" s="195"/>
-      <c r="B270" s="195"/>
-      <c r="C270" s="227"/>
-      <c r="D270" s="227"/>
+      <c r="A270" s="203"/>
+      <c r="B270" s="203"/>
+      <c r="C270" s="206"/>
+      <c r="D270" s="206"/>
       <c r="F270" s="34" t="s">
         <v>241</v>
       </c>
@@ -9630,10 +9630,10 @@
       <c r="L270" s="37"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A271" s="195"/>
-      <c r="B271" s="195"/>
-      <c r="C271" s="227"/>
-      <c r="D271" s="227"/>
+      <c r="A271" s="203"/>
+      <c r="B271" s="203"/>
+      <c r="C271" s="206"/>
+      <c r="D271" s="206"/>
       <c r="F271" s="34" t="s">
         <v>242</v>
       </c>
@@ -9646,10 +9646,10 @@
       <c r="L271" s="37"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A272" s="195"/>
-      <c r="B272" s="195"/>
-      <c r="C272" s="227"/>
-      <c r="D272" s="227"/>
+      <c r="A272" s="203"/>
+      <c r="B272" s="203"/>
+      <c r="C272" s="206"/>
+      <c r="D272" s="206"/>
       <c r="F272" s="39" t="s">
         <v>706</v>
       </c>
@@ -9664,10 +9664,10 @@
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A273" s="195"/>
-      <c r="B273" s="195"/>
-      <c r="C273" s="228"/>
-      <c r="D273" s="228"/>
+      <c r="A273" s="203"/>
+      <c r="B273" s="203"/>
+      <c r="C273" s="205"/>
+      <c r="D273" s="205"/>
       <c r="F273" s="39" t="s">
         <v>707</v>
       </c>
@@ -9680,12 +9680,12 @@
       <c r="L273" s="37"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A274" s="195"/>
-      <c r="B274" s="195"/>
-      <c r="C274" s="229" t="s">
+      <c r="A274" s="203"/>
+      <c r="B274" s="203"/>
+      <c r="C274" s="207" t="s">
         <v>246</v>
       </c>
-      <c r="D274" s="229"/>
+      <c r="D274" s="207"/>
       <c r="F274" s="34" t="s">
         <v>53</v>
       </c>
@@ -9696,10 +9696,10 @@
       <c r="L274" s="37"/>
     </row>
     <row r="275" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="195"/>
-      <c r="B275" s="195"/>
-      <c r="C275" s="230"/>
-      <c r="D275" s="230"/>
+      <c r="A275" s="203"/>
+      <c r="B275" s="203"/>
+      <c r="C275" s="208"/>
+      <c r="D275" s="208"/>
       <c r="F275" s="34" t="s">
         <v>743</v>
       </c>
@@ -9713,10 +9713,10 @@
       <c r="L275" s="37"/>
     </row>
     <row r="276" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="195"/>
-      <c r="B276" s="195"/>
-      <c r="C276" s="230"/>
-      <c r="D276" s="230"/>
+      <c r="A276" s="203"/>
+      <c r="B276" s="203"/>
+      <c r="C276" s="208"/>
+      <c r="D276" s="208"/>
       <c r="F276" s="34" t="s">
         <v>744</v>
       </c>
@@ -9727,10 +9727,10 @@
       <c r="L276" s="37"/>
     </row>
     <row r="277" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="195"/>
-      <c r="B277" s="195"/>
-      <c r="C277" s="231"/>
-      <c r="D277" s="231"/>
+      <c r="A277" s="203"/>
+      <c r="B277" s="203"/>
+      <c r="C277" s="209"/>
+      <c r="D277" s="209"/>
       <c r="F277" s="34" t="s">
         <v>745</v>
       </c>
@@ -9741,12 +9741,12 @@
       <c r="L277" s="37"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A278" s="195"/>
-      <c r="B278" s="195"/>
-      <c r="C278" s="229" t="s">
+      <c r="A278" s="203"/>
+      <c r="B278" s="203"/>
+      <c r="C278" s="207" t="s">
         <v>247</v>
       </c>
-      <c r="D278" s="229"/>
+      <c r="D278" s="207"/>
       <c r="F278" s="34" t="s">
         <v>161</v>
       </c>
@@ -9759,10 +9759,10 @@
       <c r="L278" s="37"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A279" s="195"/>
-      <c r="B279" s="195"/>
-      <c r="C279" s="230"/>
-      <c r="D279" s="230"/>
+      <c r="A279" s="203"/>
+      <c r="B279" s="203"/>
+      <c r="C279" s="208"/>
+      <c r="D279" s="208"/>
       <c r="F279" s="34" t="s">
         <v>248</v>
       </c>
@@ -9775,10 +9775,10 @@
       <c r="L279" s="37"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A280" s="195"/>
-      <c r="B280" s="195"/>
-      <c r="C280" s="230"/>
-      <c r="D280" s="230"/>
+      <c r="A280" s="203"/>
+      <c r="B280" s="203"/>
+      <c r="C280" s="208"/>
+      <c r="D280" s="208"/>
       <c r="F280" s="34" t="s">
         <v>249</v>
       </c>
@@ -9791,10 +9791,10 @@
       <c r="L280" s="37"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A281" s="195"/>
-      <c r="B281" s="195"/>
-      <c r="C281" s="231"/>
-      <c r="D281" s="231"/>
+      <c r="A281" s="203"/>
+      <c r="B281" s="203"/>
+      <c r="C281" s="209"/>
+      <c r="D281" s="209"/>
       <c r="F281" s="34" t="s">
         <v>710</v>
       </c>
@@ -9807,12 +9807,12 @@
       <c r="L281" s="37"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A282" s="195"/>
-      <c r="B282" s="195"/>
-      <c r="C282" s="218" t="s">
+      <c r="A282" s="203"/>
+      <c r="B282" s="203"/>
+      <c r="C282" s="210" t="s">
         <v>250</v>
       </c>
-      <c r="D282" s="226"/>
+      <c r="D282" s="204"/>
       <c r="F282" s="34" t="s">
         <v>251</v>
       </c>
@@ -9823,10 +9823,10 @@
       <c r="L282" s="37"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A283" s="195"/>
-      <c r="B283" s="195"/>
-      <c r="C283" s="219"/>
-      <c r="D283" s="228"/>
+      <c r="A283" s="203"/>
+      <c r="B283" s="203"/>
+      <c r="C283" s="211"/>
+      <c r="D283" s="205"/>
       <c r="F283" s="34" t="s">
         <v>252</v>
       </c>
@@ -9839,8 +9839,8 @@
       <c r="L283" s="37"/>
     </row>
     <row r="284" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A284" s="195"/>
-      <c r="B284" s="195"/>
+      <c r="A284" s="203"/>
+      <c r="B284" s="203"/>
       <c r="C284" s="40" t="s">
         <v>254</v>
       </c>
@@ -9855,8 +9855,8 @@
       <c r="L284" s="37"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A285" s="195"/>
-      <c r="B285" s="195"/>
+      <c r="A285" s="203"/>
+      <c r="B285" s="203"/>
       <c r="C285" s="42" t="s">
         <v>256</v>
       </c>
@@ -9875,8 +9875,8 @@
       </c>
     </row>
     <row r="286" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A286" s="195"/>
-      <c r="B286" s="195"/>
+      <c r="A286" s="203"/>
+      <c r="B286" s="203"/>
       <c r="C286" s="44" t="s">
         <v>260</v>
       </c>
@@ -9891,8 +9891,8 @@
       <c r="L286" s="37"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A287" s="195"/>
-      <c r="B287" s="195"/>
+      <c r="A287" s="203"/>
+      <c r="B287" s="203"/>
       <c r="C287" s="38" t="s">
         <v>261</v>
       </c>
@@ -9907,8 +9907,8 @@
       <c r="L287" s="37"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A288" s="195"/>
-      <c r="B288" s="195"/>
+      <c r="A288" s="203"/>
+      <c r="B288" s="203"/>
       <c r="C288" s="38"/>
       <c r="D288" s="38"/>
       <c r="F288" s="34" t="s">
@@ -9923,8 +9923,8 @@
       <c r="L288" s="37"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A289" s="195"/>
-      <c r="B289" s="195"/>
+      <c r="A289" s="203"/>
+      <c r="B289" s="203"/>
       <c r="C289" s="38"/>
       <c r="D289" s="38"/>
       <c r="F289" s="34" t="s">
@@ -9937,8 +9937,8 @@
       <c r="L289" s="37"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A290" s="195"/>
-      <c r="B290" s="195"/>
+      <c r="A290" s="203"/>
+      <c r="B290" s="203"/>
       <c r="C290" s="38" t="s">
         <v>265</v>
       </c>
@@ -9953,8 +9953,8 @@
       <c r="L290" s="37"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A291" s="195"/>
-      <c r="B291" s="195"/>
+      <c r="A291" s="203"/>
+      <c r="B291" s="203"/>
       <c r="C291" s="38"/>
       <c r="D291" s="38"/>
       <c r="F291" s="34" t="s">
@@ -9969,8 +9969,8 @@
       <c r="L291" s="37"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A292" s="195"/>
-      <c r="B292" s="195"/>
+      <c r="A292" s="203"/>
+      <c r="B292" s="203"/>
       <c r="C292" s="38"/>
       <c r="D292" s="38"/>
       <c r="F292" s="34" t="s">
@@ -9983,8 +9983,8 @@
       <c r="L292" s="37"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A293" s="195"/>
-      <c r="B293" s="195"/>
+      <c r="A293" s="203"/>
+      <c r="B293" s="203"/>
       <c r="C293" s="38" t="s">
         <v>270</v>
       </c>
@@ -9997,8 +9997,8 @@
       <c r="L293" s="37"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A294" s="195"/>
-      <c r="B294" s="196"/>
+      <c r="A294" s="203"/>
+      <c r="B294" s="202"/>
       <c r="C294" s="38" t="s">
         <v>271</v>
       </c>
@@ -10011,7 +10011,7 @@
       <c r="L294" s="37"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A295" s="196"/>
+      <c r="A295" s="202"/>
       <c r="B295" s="12" t="s">
         <v>272</v>
       </c>
@@ -10046,55 +10046,15 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C163:C179"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C136:C143"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="D282:D283"/>
-    <mergeCell ref="D180:D210"/>
-    <mergeCell ref="D211:D227"/>
-    <mergeCell ref="D230:D250"/>
-    <mergeCell ref="D252:D261"/>
-    <mergeCell ref="D263:D273"/>
-    <mergeCell ref="D274:D277"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C180:C210"/>
-    <mergeCell ref="C211:C227"/>
-    <mergeCell ref="C230:C250"/>
-    <mergeCell ref="C263:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C252:C261"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="A251:A295"/>
     <mergeCell ref="B2:B30"/>
     <mergeCell ref="B31:B36"/>
@@ -10111,15 +10071,55 @@
     <mergeCell ref="A58:A162"/>
     <mergeCell ref="A163:A250"/>
     <mergeCell ref="B37:B49"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C180:C210"/>
+    <mergeCell ref="C211:C227"/>
+    <mergeCell ref="C230:C250"/>
+    <mergeCell ref="C263:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C252:C261"/>
+    <mergeCell ref="D282:D283"/>
+    <mergeCell ref="D180:D210"/>
+    <mergeCell ref="D211:D227"/>
+    <mergeCell ref="D230:D250"/>
+    <mergeCell ref="D252:D261"/>
+    <mergeCell ref="D263:D273"/>
+    <mergeCell ref="D274:D277"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C163:C179"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="C136:C143"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10565,7 +10565,7 @@
       <c r="A19" s="118">
         <v>15</v>
       </c>
-      <c r="B19" s="323" t="s">
+      <c r="B19" s="176" t="s">
         <v>755</v>
       </c>
       <c r="C19" s="117" t="s">
@@ -10615,8 +10615,8 @@
         <v>635</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="325" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="324">
+    <row r="21" spans="1:11" s="178" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="177">
         <v>17</v>
       </c>
       <c r="B21" s="175" t="s">
@@ -10851,11 +10851,11 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10910,19 +10910,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="267" t="s">
+      <c r="B3" s="303" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="251" t="s">
+      <c r="C3" s="281" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="244" t="s">
+      <c r="D3" s="308" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="271" t="s">
+      <c r="E3" s="268" t="s">
         <v>284</v>
       </c>
-      <c r="F3" s="244" t="s">
+      <c r="F3" s="308" t="s">
         <v>285</v>
       </c>
       <c r="G3" s="165" t="s">
@@ -10931,7 +10931,7 @@
       <c r="H3" s="144" t="s">
         <v>632</v>
       </c>
-      <c r="I3" s="287" t="s">
+      <c r="I3" s="254" t="s">
         <v>286</v>
       </c>
       <c r="J3" s="66" t="s">
@@ -10942,16 +10942,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="267"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="244"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="308"/>
       <c r="G4" s="67"/>
       <c r="H4" s="145" t="s">
         <v>636</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="66" t="s">
         <v>289</v>
       </c>
@@ -10960,8 +10960,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="267"/>
-      <c r="C5" s="252"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="290"/>
       <c r="D5" s="68" t="s">
         <v>290</v>
       </c>
@@ -10988,8 +10988,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="267"/>
-      <c r="C6" s="252"/>
+      <c r="B6" s="303"/>
+      <c r="C6" s="290"/>
       <c r="D6" s="66" t="s">
         <v>101</v>
       </c>
@@ -11014,8 +11014,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="267"/>
-      <c r="C7" s="252"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="290"/>
       <c r="D7" s="66" t="s">
         <v>299</v>
       </c>
@@ -11038,24 +11038,24 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="267"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="248" t="s">
+      <c r="B8" s="303"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="309" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="251" t="s">
+      <c r="E8" s="281" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="248" t="s">
+      <c r="F8" s="309" t="s">
         <v>304</v>
       </c>
       <c r="G8" s="146" t="s">
         <v>765</v>
       </c>
-      <c r="H8" s="300" t="s">
+      <c r="H8" s="249" t="s">
         <v>635</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="266" t="s">
         <v>306</v>
       </c>
       <c r="J8" s="68" t="s">
@@ -11066,14 +11066,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="267"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="248"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="248"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="309"/>
       <c r="G9" s="66"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="290"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="68" t="s">
         <v>308</v>
       </c>
@@ -11082,22 +11082,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="267"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="248" t="s">
+      <c r="B10" s="303"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="309" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="251" t="s">
+      <c r="E10" s="281" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="248" t="s">
+      <c r="F10" s="309" t="s">
         <v>304</v>
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="144" t="s">
         <v>629</v>
       </c>
-      <c r="I10" s="289" t="s">
+      <c r="I10" s="266" t="s">
         <v>310</v>
       </c>
       <c r="J10" s="68" t="s">
@@ -11108,16 +11108,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="267"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="248"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="309"/>
       <c r="G11" s="67"/>
       <c r="H11" s="145" t="s">
         <v>629</v>
       </c>
-      <c r="I11" s="290"/>
+      <c r="I11" s="267"/>
       <c r="J11" s="68" t="s">
         <v>308</v>
       </c>
@@ -11126,22 +11126,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="267"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="244" t="s">
+      <c r="B12" s="303"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="308" t="s">
         <v>311</v>
       </c>
-      <c r="E12" s="271" t="s">
+      <c r="E12" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="F12" s="284" t="s">
+      <c r="F12" s="263" t="s">
         <v>312</v>
       </c>
       <c r="G12" s="71"/>
       <c r="H12" s="147" t="s">
         <v>629</v>
       </c>
-      <c r="I12" s="287" t="s">
+      <c r="I12" s="254" t="s">
         <v>313</v>
       </c>
       <c r="J12" s="70" t="s">
@@ -11152,16 +11152,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="267"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="272"/>
-      <c r="F13" s="284"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="263"/>
       <c r="G13" s="72"/>
       <c r="H13" s="145" t="s">
         <v>629</v>
       </c>
-      <c r="I13" s="288"/>
+      <c r="I13" s="255"/>
       <c r="J13" s="70" t="s">
         <v>315</v>
       </c>
@@ -11170,24 +11170,24 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="267"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="244" t="s">
+      <c r="B14" s="303"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="308" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="271" t="s">
+      <c r="E14" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="F14" s="326" t="s">
+      <c r="F14" s="262" t="s">
         <v>317</v>
       </c>
-      <c r="G14" s="287" t="s">
+      <c r="G14" s="254" t="s">
         <v>318</v>
       </c>
       <c r="H14" s="145" t="s">
         <v>629</v>
       </c>
-      <c r="I14" s="287" t="s">
+      <c r="I14" s="254" t="s">
         <v>319</v>
       </c>
       <c r="J14" s="66" t="s">
@@ -11198,16 +11198,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="267"/>
-      <c r="C15" s="252"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="288"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="255"/>
       <c r="H15" s="145" t="s">
         <v>629</v>
       </c>
-      <c r="I15" s="288"/>
+      <c r="I15" s="255"/>
       <c r="J15" s="66" t="s">
         <v>320</v>
       </c>
@@ -11216,20 +11216,20 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="267"/>
-      <c r="C16" s="252"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="284" t="s">
+      <c r="B16" s="303"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="263" t="s">
         <v>321</v>
       </c>
-      <c r="G16" s="300" t="s">
+      <c r="G16" s="249" t="s">
         <v>737</v>
       </c>
-      <c r="H16" s="304" t="s">
+      <c r="H16" s="256" t="s">
         <v>629</v>
       </c>
-      <c r="I16" s="271" t="s">
+      <c r="I16" s="268" t="s">
         <v>322</v>
       </c>
       <c r="J16" s="66" t="s">
@@ -11240,14 +11240,14 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="267"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="284"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="305"/>
-      <c r="I17" s="273"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="308"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="257"/>
+      <c r="I17" s="269"/>
       <c r="J17" s="66" t="s">
         <v>298</v>
       </c>
@@ -11256,14 +11256,14 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="267"/>
-      <c r="C18" s="252"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="273"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="273"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="308"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="257"/>
+      <c r="I18" s="269"/>
       <c r="J18" s="66" t="s">
         <v>326</v>
       </c>
@@ -11272,14 +11272,14 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="267"/>
-      <c r="C19" s="252"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="273"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="308"/>
+      <c r="E19" s="269"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="257"/>
+      <c r="I19" s="269"/>
       <c r="J19" s="66" t="s">
         <v>327</v>
       </c>
@@ -11288,14 +11288,14 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="267"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="272"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="301"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="272"/>
+      <c r="B20" s="303"/>
+      <c r="C20" s="282"/>
+      <c r="D20" s="308"/>
+      <c r="E20" s="270"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="258"/>
+      <c r="I20" s="270"/>
       <c r="J20" s="66" t="s">
         <v>329</v>
       </c>
@@ -11304,26 +11304,26 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="304" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="254" t="s">
+      <c r="C21" s="283" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="245" t="s">
+      <c r="D21" s="248" t="s">
         <v>332</v>
       </c>
-      <c r="E21" s="245" t="s">
+      <c r="E21" s="248" t="s">
         <v>333</v>
       </c>
-      <c r="F21" s="245" t="s">
+      <c r="F21" s="248" t="s">
         <v>334</v>
       </c>
-      <c r="G21" s="245"/>
+      <c r="G21" s="248"/>
       <c r="H21" s="148" t="s">
         <v>628</v>
       </c>
-      <c r="I21" s="274" t="s">
+      <c r="I21" s="271" t="s">
         <v>335</v>
       </c>
       <c r="J21" s="73" t="s">
@@ -11334,14 +11334,14 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="268"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
+      <c r="B22" s="304"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="248"/>
       <c r="H22" s="138"/>
-      <c r="I22" s="275"/>
+      <c r="I22" s="272"/>
       <c r="J22" s="73" t="s">
         <v>337</v>
       </c>
@@ -11350,14 +11350,14 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="268"/>
-      <c r="C23" s="255"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
+      <c r="B23" s="304"/>
+      <c r="C23" s="291"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
       <c r="H23" s="138"/>
-      <c r="I23" s="275"/>
+      <c r="I23" s="272"/>
       <c r="J23" s="73" t="s">
         <v>338</v>
       </c>
@@ -11366,14 +11366,14 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="268"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="245"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
+      <c r="B24" s="304"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
       <c r="H24" s="139"/>
-      <c r="I24" s="276"/>
+      <c r="I24" s="273"/>
       <c r="J24" s="73" t="s">
         <v>339</v>
       </c>
@@ -11382,20 +11382,20 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="268"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="326" t="s">
+      <c r="B25" s="304"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="262" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="274" t="s">
+      <c r="E25" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="F25" s="282" t="s">
+      <c r="F25" s="259" t="s">
         <v>342</v>
       </c>
       <c r="G25" s="74"/>
       <c r="H25" s="134"/>
-      <c r="I25" s="274" t="s">
+      <c r="I25" s="271" t="s">
         <v>343</v>
       </c>
       <c r="J25" s="73" t="s">
@@ -11406,14 +11406,14 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="268"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="326"/>
-      <c r="E26" s="275"/>
-      <c r="F26" s="282"/>
+      <c r="B26" s="304"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="259"/>
       <c r="G26" s="75"/>
       <c r="H26" s="135"/>
-      <c r="I26" s="275"/>
+      <c r="I26" s="272"/>
       <c r="J26" s="73" t="s">
         <v>337</v>
       </c>
@@ -11422,14 +11422,14 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="268"/>
-      <c r="C27" s="255"/>
-      <c r="D27" s="326"/>
-      <c r="E27" s="276"/>
-      <c r="F27" s="282"/>
+      <c r="B27" s="304"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="259"/>
       <c r="G27" s="76"/>
       <c r="H27" s="136"/>
-      <c r="I27" s="276"/>
+      <c r="I27" s="273"/>
       <c r="J27" s="73" t="s">
         <v>345</v>
       </c>
@@ -11438,20 +11438,20 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="268"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="246" t="s">
+      <c r="B28" s="304"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="279" t="s">
         <v>638</v>
       </c>
-      <c r="E28" s="274" t="s">
+      <c r="E28" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="F28" s="245" t="s">
+      <c r="F28" s="248" t="s">
         <v>347</v>
       </c>
       <c r="G28" s="77"/>
       <c r="H28" s="137"/>
-      <c r="I28" s="291" t="s">
+      <c r="I28" s="274" t="s">
         <v>348</v>
       </c>
       <c r="J28" s="73" t="s">
@@ -11462,14 +11462,14 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="268"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="247"/>
-      <c r="E29" s="275"/>
-      <c r="F29" s="245"/>
+      <c r="B29" s="304"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="248"/>
       <c r="G29" s="78"/>
       <c r="H29" s="138"/>
-      <c r="I29" s="292"/>
+      <c r="I29" s="275"/>
       <c r="J29" s="73" t="s">
         <v>350</v>
       </c>
@@ -11478,14 +11478,14 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="268"/>
-      <c r="C30" s="255"/>
-      <c r="D30" s="247"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="245"/>
+      <c r="B30" s="304"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="248"/>
       <c r="G30" s="78"/>
       <c r="H30" s="138"/>
-      <c r="I30" s="292"/>
+      <c r="I30" s="275"/>
       <c r="J30" s="73" t="s">
         <v>351</v>
       </c>
@@ -11494,14 +11494,14 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="268"/>
-      <c r="C31" s="255"/>
-      <c r="D31" s="247"/>
-      <c r="E31" s="275"/>
-      <c r="F31" s="245"/>
+      <c r="B31" s="304"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="248"/>
       <c r="G31" s="78"/>
       <c r="H31" s="138"/>
-      <c r="I31" s="292"/>
+      <c r="I31" s="275"/>
       <c r="J31" s="73" t="s">
         <v>352</v>
       </c>
@@ -11510,14 +11510,14 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="268"/>
-      <c r="C32" s="255"/>
-      <c r="D32" s="247"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="245"/>
+      <c r="B32" s="304"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="280"/>
+      <c r="E32" s="272"/>
+      <c r="F32" s="248"/>
       <c r="G32" s="78"/>
       <c r="H32" s="138"/>
-      <c r="I32" s="292"/>
+      <c r="I32" s="275"/>
       <c r="J32" s="73" t="s">
         <v>353</v>
       </c>
@@ -11526,14 +11526,14 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B33" s="268"/>
-      <c r="C33" s="255"/>
-      <c r="D33" s="247"/>
-      <c r="E33" s="276"/>
-      <c r="F33" s="245"/>
+      <c r="B33" s="304"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="248"/>
       <c r="G33" s="79"/>
       <c r="H33" s="139"/>
-      <c r="I33" s="293"/>
+      <c r="I33" s="276"/>
       <c r="J33" s="73" t="s">
         <v>354</v>
       </c>
@@ -11542,8 +11542,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="268"/>
-      <c r="C34" s="255"/>
+      <c r="B34" s="304"/>
+      <c r="C34" s="291"/>
       <c r="D34" s="156" t="s">
         <v>646</v>
       </c>
@@ -11568,15 +11568,15 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B35" s="268"/>
-      <c r="C35" s="255"/>
-      <c r="D35" s="245" t="s">
+      <c r="B35" s="304"/>
+      <c r="C35" s="291"/>
+      <c r="D35" s="248" t="s">
         <v>360</v>
       </c>
-      <c r="E35" s="254" t="s">
+      <c r="E35" s="283" t="s">
         <v>361</v>
       </c>
-      <c r="F35" s="283" t="s">
+      <c r="F35" s="310" t="s">
         <v>362</v>
       </c>
       <c r="G35" s="77" t="s">
@@ -11585,7 +11585,7 @@
       <c r="H35" s="148" t="s">
         <v>641</v>
       </c>
-      <c r="I35" s="294" t="s">
+      <c r="I35" s="277" t="s">
         <v>364</v>
       </c>
       <c r="J35" s="80" t="s">
@@ -11596,18 +11596,18 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="268"/>
-      <c r="C36" s="255"/>
-      <c r="D36" s="245"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="283"/>
+      <c r="B36" s="304"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="248"/>
+      <c r="E36" s="284"/>
+      <c r="F36" s="310"/>
       <c r="G36" s="79" t="s">
         <v>366</v>
       </c>
       <c r="H36" s="151" t="s">
         <v>640</v>
       </c>
-      <c r="I36" s="295"/>
+      <c r="I36" s="278"/>
       <c r="J36" s="80" t="s">
         <v>367</v>
       </c>
@@ -11617,8 +11617,8 @@
     </row>
     <row r="37" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="82"/>
-      <c r="B37" s="268"/>
-      <c r="C37" s="255"/>
+      <c r="B37" s="304"/>
+      <c r="C37" s="291"/>
       <c r="D37" s="80" t="s">
         <v>368</v>
       </c>
@@ -11659,22 +11659,22 @@
     </row>
     <row r="38" spans="1:26" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="82"/>
-      <c r="B38" s="269"/>
-      <c r="C38" s="256"/>
-      <c r="D38" s="246" t="s">
+      <c r="B38" s="305"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="279" t="s">
         <v>647</v>
       </c>
-      <c r="E38" s="245" t="s">
+      <c r="E38" s="248" t="s">
         <v>341</v>
       </c>
-      <c r="F38" s="282" t="s">
+      <c r="F38" s="259" t="s">
         <v>373</v>
       </c>
-      <c r="G38" s="282" t="s">
+      <c r="G38" s="259" t="s">
         <v>486</v>
       </c>
       <c r="H38" s="140"/>
-      <c r="I38" s="245" t="s">
+      <c r="I38" s="248" t="s">
         <v>487</v>
       </c>
       <c r="J38" s="80" t="s">
@@ -11701,14 +11701,14 @@
     </row>
     <row r="39" spans="1:26" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="82"/>
-      <c r="B39" s="269"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="247"/>
-      <c r="E39" s="245"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
+      <c r="B39" s="305"/>
+      <c r="C39" s="292"/>
+      <c r="D39" s="280"/>
+      <c r="E39" s="248"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="259"/>
       <c r="H39" s="140"/>
-      <c r="I39" s="245"/>
+      <c r="I39" s="248"/>
       <c r="J39" s="80" t="s">
         <v>375</v>
       </c>
@@ -11733,14 +11733,14 @@
     </row>
     <row r="40" spans="1:26" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="82"/>
-      <c r="B40" s="269"/>
-      <c r="C40" s="257"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="245"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="282"/>
+      <c r="B40" s="305"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="259"/>
       <c r="H40" s="140"/>
-      <c r="I40" s="245"/>
+      <c r="I40" s="248"/>
       <c r="J40" s="80" t="s">
         <v>376</v>
       </c>
@@ -11764,28 +11764,28 @@
       <c r="Z40" s="82"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B41" s="270" t="s">
+      <c r="B41" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="C41" s="258" t="s">
+      <c r="C41" s="294" t="s">
         <v>378</v>
       </c>
-      <c r="D41" s="243" t="s">
+      <c r="D41" s="307" t="s">
         <v>379</v>
       </c>
-      <c r="E41" s="278" t="s">
+      <c r="E41" s="285" t="s">
         <v>380</v>
       </c>
-      <c r="F41" s="285" t="s">
+      <c r="F41" s="264" t="s">
         <v>381</v>
       </c>
-      <c r="G41" s="296" t="s">
+      <c r="G41" s="260" t="s">
         <v>382</v>
       </c>
-      <c r="H41" s="302" t="s">
+      <c r="H41" s="251" t="s">
         <v>642</v>
       </c>
-      <c r="I41" s="296" t="s">
+      <c r="I41" s="260" t="s">
         <v>383</v>
       </c>
       <c r="J41" s="84" t="s">
@@ -11811,16 +11811,16 @@
       <c r="Z41" s="82"/>
     </row>
     <row r="42" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="270"/>
-      <c r="C42" s="259"/>
-      <c r="D42" s="243"/>
-      <c r="E42" s="279"/>
-      <c r="F42" s="285"/>
-      <c r="G42" s="297"/>
-      <c r="H42" s="279" t="s">
+      <c r="B42" s="306"/>
+      <c r="C42" s="295"/>
+      <c r="D42" s="307"/>
+      <c r="E42" s="252"/>
+      <c r="F42" s="264"/>
+      <c r="G42" s="261"/>
+      <c r="H42" s="252" t="s">
         <v>636</v>
       </c>
-      <c r="I42" s="297"/>
+      <c r="I42" s="261"/>
       <c r="J42" s="84" t="s">
         <v>385</v>
       </c>
@@ -11844,8 +11844,8 @@
       <c r="Z42" s="82"/>
     </row>
     <row r="43" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="270"/>
-      <c r="C43" s="259"/>
+      <c r="B43" s="306"/>
+      <c r="C43" s="295"/>
       <c r="D43" s="85" t="s">
         <v>386</v>
       </c>
@@ -11872,8 +11872,8 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="270"/>
-      <c r="C44" s="260"/>
+      <c r="B44" s="306"/>
+      <c r="C44" s="296"/>
       <c r="D44" s="153" t="s">
         <v>391</v>
       </c>
@@ -11898,10 +11898,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B45" s="249" t="s">
+      <c r="B45" s="288" t="s">
         <v>396</v>
       </c>
-      <c r="C45" s="261" t="s">
+      <c r="C45" s="297" t="s">
         <v>397</v>
       </c>
       <c r="D45" s="88" t="s">
@@ -11930,8 +11930,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B46" s="249"/>
-      <c r="C46" s="262"/>
+      <c r="B46" s="288"/>
+      <c r="C46" s="298"/>
       <c r="D46" s="88" t="s">
         <v>404</v>
       </c>
@@ -11956,15 +11956,15 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B47" s="249"/>
-      <c r="C47" s="262"/>
-      <c r="D47" s="246" t="s">
+      <c r="B47" s="288"/>
+      <c r="C47" s="298"/>
+      <c r="D47" s="279" t="s">
         <v>648</v>
       </c>
-      <c r="E47" s="280" t="s">
+      <c r="E47" s="286" t="s">
         <v>399</v>
       </c>
-      <c r="F47" s="286" t="s">
+      <c r="F47" s="265" t="s">
         <v>409</v>
       </c>
       <c r="G47" s="91" t="s">
@@ -11973,7 +11973,7 @@
       <c r="H47" s="155" t="s">
         <v>633</v>
       </c>
-      <c r="I47" s="298" t="s">
+      <c r="I47" s="246" t="s">
         <v>411</v>
       </c>
       <c r="J47" s="88" t="s">
@@ -11984,16 +11984,16 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B48" s="249"/>
-      <c r="C48" s="263"/>
-      <c r="D48" s="247"/>
-      <c r="E48" s="281"/>
-      <c r="F48" s="286"/>
+      <c r="B48" s="288"/>
+      <c r="C48" s="299"/>
+      <c r="D48" s="280"/>
+      <c r="E48" s="287"/>
+      <c r="F48" s="265"/>
       <c r="G48" s="92" t="s">
         <v>413</v>
       </c>
       <c r="H48" s="92"/>
-      <c r="I48" s="299"/>
+      <c r="I48" s="247"/>
       <c r="J48" s="88" t="s">
         <v>414</v>
       </c>
@@ -12002,10 +12002,10 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="250" t="s">
+      <c r="B49" s="289" t="s">
         <v>415</v>
       </c>
-      <c r="C49" s="264" t="s">
+      <c r="C49" s="300" t="s">
         <v>416</v>
       </c>
       <c r="D49" s="93" t="s">
@@ -12032,8 +12032,8 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="250"/>
-      <c r="C50" s="265"/>
+      <c r="B50" s="289"/>
+      <c r="C50" s="301"/>
       <c r="D50" s="93" t="s">
         <v>422</v>
       </c>
@@ -12058,8 +12058,8 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="250"/>
-      <c r="C51" s="265"/>
+      <c r="B51" s="289"/>
+      <c r="C51" s="301"/>
       <c r="D51" s="93" t="s">
         <v>427</v>
       </c>
@@ -12082,8 +12082,8 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="250"/>
-      <c r="C52" s="265"/>
+      <c r="B52" s="289"/>
+      <c r="C52" s="301"/>
       <c r="D52" s="149" t="s">
         <v>430</v>
       </c>
@@ -12108,8 +12108,8 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="250"/>
-      <c r="C53" s="266"/>
+      <c r="B53" s="289"/>
+      <c r="C53" s="302"/>
       <c r="D53" s="149" t="s">
         <v>152</v>
       </c>
@@ -12135,32 +12135,32 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E8:E9"/>
@@ -12177,32 +12177,32 @@
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="D28:D33"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="I21:I24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12267,19 +12267,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="318" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="308" t="s">
+      <c r="C3" s="314" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="313" t="s">
+      <c r="D3" s="320" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="314" t="s">
+      <c r="E3" s="321" t="s">
         <v>284</v>
       </c>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="320" t="s">
         <v>285</v>
       </c>
       <c r="G3" s="50"/>
@@ -12294,11 +12294,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="307"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="313"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="320"/>
       <c r="G4" s="52"/>
       <c r="H4" s="312"/>
       <c r="I4" s="51" t="s">
@@ -12309,8 +12309,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="307"/>
-      <c r="C5" s="309"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="319"/>
       <c r="D5" s="53" t="s">
         <v>290</v>
       </c>
@@ -12332,8 +12332,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="307"/>
-      <c r="C6" s="309"/>
+      <c r="B6" s="318"/>
+      <c r="C6" s="319"/>
       <c r="D6" s="51" t="s">
         <v>101</v>
       </c>
@@ -12355,8 +12355,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="307"/>
-      <c r="C7" s="309"/>
+      <c r="B7" s="318"/>
+      <c r="C7" s="319"/>
       <c r="D7" s="51" t="s">
         <v>299</v>
       </c>
@@ -12376,21 +12376,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="307"/>
-      <c r="C8" s="309"/>
-      <c r="D8" s="316" t="s">
+      <c r="B8" s="318"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="313" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="308" t="s">
+      <c r="E8" s="314" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="316" t="s">
+      <c r="F8" s="313" t="s">
         <v>304</v>
       </c>
       <c r="G8" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="H8" s="317" t="s">
+      <c r="H8" s="316" t="s">
         <v>306</v>
       </c>
       <c r="I8" s="53" t="s">
@@ -12401,13 +12401,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="307"/>
-      <c r="C9" s="309"/>
-      <c r="D9" s="316"/>
-      <c r="E9" s="310"/>
-      <c r="F9" s="316"/>
+      <c r="B9" s="318"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="313"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="318"/>
+      <c r="H9" s="317"/>
       <c r="I9" s="53" t="s">
         <v>308</v>
       </c>
@@ -12416,19 +12416,19 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="307"/>
-      <c r="C10" s="309"/>
-      <c r="D10" s="316" t="s">
+      <c r="B10" s="318"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="313" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="308" t="s">
+      <c r="E10" s="314" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="316" t="s">
+      <c r="F10" s="313" t="s">
         <v>304</v>
       </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="317" t="s">
+      <c r="H10" s="316" t="s">
         <v>310</v>
       </c>
       <c r="I10" s="53" t="s">
@@ -12439,13 +12439,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="307"/>
-      <c r="C11" s="309"/>
-      <c r="D11" s="316"/>
-      <c r="E11" s="310"/>
-      <c r="F11" s="316"/>
+      <c r="B11" s="318"/>
+      <c r="C11" s="319"/>
+      <c r="D11" s="313"/>
+      <c r="E11" s="315"/>
+      <c r="F11" s="313"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="318"/>
+      <c r="H11" s="317"/>
       <c r="I11" s="53" t="s">
         <v>308</v>
       </c>
@@ -12454,15 +12454,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="307"/>
-      <c r="C12" s="309"/>
-      <c r="D12" s="313" t="s">
+      <c r="B12" s="318"/>
+      <c r="C12" s="319"/>
+      <c r="D12" s="320" t="s">
         <v>311</v>
       </c>
-      <c r="E12" s="314" t="s">
+      <c r="E12" s="321" t="s">
         <v>303</v>
       </c>
-      <c r="F12" s="319" t="s">
+      <c r="F12" s="324" t="s">
         <v>312</v>
       </c>
       <c r="G12" s="56"/>
@@ -12477,11 +12477,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="307"/>
-      <c r="C13" s="309"/>
-      <c r="D13" s="313"/>
-      <c r="E13" s="315"/>
-      <c r="F13" s="319"/>
+      <c r="B13" s="318"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="324"/>
       <c r="G13" s="57"/>
       <c r="H13" s="312"/>
       <c r="I13" s="55" t="s">
@@ -12492,15 +12492,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="307"/>
-      <c r="C14" s="309"/>
-      <c r="D14" s="313" t="s">
+      <c r="B14" s="318"/>
+      <c r="C14" s="319"/>
+      <c r="D14" s="320" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="314" t="s">
+      <c r="E14" s="321" t="s">
         <v>303</v>
       </c>
-      <c r="F14" s="313" t="s">
+      <c r="F14" s="320" t="s">
         <v>317</v>
       </c>
       <c r="G14" s="51" t="s">
@@ -12517,11 +12517,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="307"/>
-      <c r="C15" s="309"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="321"/>
-      <c r="F15" s="313"/>
+      <c r="B15" s="318"/>
+      <c r="C15" s="319"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="323"/>
+      <c r="F15" s="320"/>
       <c r="G15" s="52"/>
       <c r="H15" s="312"/>
       <c r="I15" s="51" t="s">
@@ -12532,15 +12532,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="307"/>
-      <c r="C16" s="309"/>
-      <c r="D16" s="313"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="319" t="s">
+      <c r="B16" s="318"/>
+      <c r="C16" s="319"/>
+      <c r="D16" s="320"/>
+      <c r="E16" s="323"/>
+      <c r="F16" s="324" t="s">
         <v>321</v>
       </c>
       <c r="G16" s="51"/>
-      <c r="H16" s="314" t="s">
+      <c r="H16" s="321" t="s">
         <v>322</v>
       </c>
       <c r="I16" s="51" t="s">
@@ -12551,15 +12551,15 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="307"/>
-      <c r="C17" s="309"/>
-      <c r="D17" s="313"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="319"/>
+      <c r="B17" s="318"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="324"/>
       <c r="G17" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="321"/>
+      <c r="H17" s="323"/>
       <c r="I17" s="51" t="s">
         <v>298</v>
       </c>
@@ -12568,15 +12568,15 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="307"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="313"/>
-      <c r="E18" s="321"/>
-      <c r="F18" s="319"/>
+      <c r="B18" s="318"/>
+      <c r="C18" s="319"/>
+      <c r="D18" s="320"/>
+      <c r="E18" s="323"/>
+      <c r="F18" s="324"/>
       <c r="G18" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="H18" s="321"/>
+      <c r="H18" s="323"/>
       <c r="I18" s="51" t="s">
         <v>326</v>
       </c>
@@ -12585,13 +12585,13 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="307"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="313"/>
-      <c r="E19" s="321"/>
-      <c r="F19" s="319"/>
+      <c r="B19" s="318"/>
+      <c r="C19" s="319"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="323"/>
+      <c r="F19" s="324"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="321"/>
+      <c r="H19" s="323"/>
       <c r="I19" s="51" t="s">
         <v>327</v>
       </c>
@@ -12600,13 +12600,13 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="307"/>
-      <c r="C20" s="310"/>
-      <c r="D20" s="313"/>
-      <c r="E20" s="315"/>
-      <c r="F20" s="319"/>
+      <c r="B20" s="318"/>
+      <c r="C20" s="315"/>
+      <c r="D20" s="320"/>
+      <c r="E20" s="322"/>
+      <c r="F20" s="324"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="315"/>
+      <c r="H20" s="322"/>
       <c r="I20" s="51" t="s">
         <v>329</v>
       </c>
@@ -12615,23 +12615,23 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="320" t="s">
+      <c r="B21" s="326" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="308" t="s">
+      <c r="C21" s="314" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="313" t="s">
+      <c r="D21" s="320" t="s">
         <v>332</v>
       </c>
-      <c r="E21" s="313" t="s">
+      <c r="E21" s="320" t="s">
         <v>333</v>
       </c>
-      <c r="F21" s="313" t="s">
+      <c r="F21" s="320" t="s">
         <v>334</v>
       </c>
-      <c r="G21" s="313"/>
-      <c r="H21" s="314" t="s">
+      <c r="G21" s="320"/>
+      <c r="H21" s="321" t="s">
         <v>335</v>
       </c>
       <c r="I21" s="51" t="s">
@@ -12642,13 +12642,13 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="320"/>
-      <c r="C22" s="309"/>
-      <c r="D22" s="313"/>
-      <c r="E22" s="313"/>
-      <c r="F22" s="313"/>
-      <c r="G22" s="313"/>
-      <c r="H22" s="321"/>
+      <c r="B22" s="326"/>
+      <c r="C22" s="319"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="320"/>
+      <c r="F22" s="320"/>
+      <c r="G22" s="320"/>
+      <c r="H22" s="323"/>
       <c r="I22" s="51" t="s">
         <v>337</v>
       </c>
@@ -12657,13 +12657,13 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="320"/>
-      <c r="C23" s="309"/>
-      <c r="D23" s="313"/>
-      <c r="E23" s="313"/>
-      <c r="F23" s="313"/>
-      <c r="G23" s="313"/>
-      <c r="H23" s="321"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="319"/>
+      <c r="D23" s="320"/>
+      <c r="E23" s="320"/>
+      <c r="F23" s="320"/>
+      <c r="G23" s="320"/>
+      <c r="H23" s="323"/>
       <c r="I23" s="51" t="s">
         <v>338</v>
       </c>
@@ -12672,13 +12672,13 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="320"/>
-      <c r="C24" s="309"/>
-      <c r="D24" s="313"/>
-      <c r="E24" s="313"/>
-      <c r="F24" s="313"/>
-      <c r="G24" s="313"/>
-      <c r="H24" s="315"/>
+      <c r="B24" s="326"/>
+      <c r="C24" s="319"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="322"/>
       <c r="I24" s="51" t="s">
         <v>339</v>
       </c>
@@ -12687,19 +12687,19 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="320"/>
-      <c r="C25" s="309"/>
-      <c r="D25" s="313" t="s">
+      <c r="B25" s="326"/>
+      <c r="C25" s="319"/>
+      <c r="D25" s="320" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="314" t="s">
+      <c r="E25" s="321" t="s">
         <v>341</v>
       </c>
-      <c r="F25" s="319" t="s">
+      <c r="F25" s="324" t="s">
         <v>342</v>
       </c>
       <c r="G25" s="56"/>
-      <c r="H25" s="314" t="s">
+      <c r="H25" s="321" t="s">
         <v>343</v>
       </c>
       <c r="I25" s="51" t="s">
@@ -12710,13 +12710,13 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="320"/>
-      <c r="C26" s="309"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="319"/>
+      <c r="B26" s="326"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="323"/>
+      <c r="F26" s="324"/>
       <c r="G26" s="58"/>
-      <c r="H26" s="321"/>
+      <c r="H26" s="323"/>
       <c r="I26" s="51" t="s">
         <v>337</v>
       </c>
@@ -12725,13 +12725,13 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="320"/>
-      <c r="C27" s="309"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="315"/>
-      <c r="F27" s="319"/>
+      <c r="B27" s="326"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="320"/>
+      <c r="E27" s="322"/>
+      <c r="F27" s="324"/>
       <c r="G27" s="57"/>
-      <c r="H27" s="315"/>
+      <c r="H27" s="322"/>
       <c r="I27" s="51" t="s">
         <v>345</v>
       </c>
@@ -12740,15 +12740,15 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="320"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="313" t="s">
+      <c r="B28" s="326"/>
+      <c r="C28" s="319"/>
+      <c r="D28" s="320" t="s">
         <v>346</v>
       </c>
-      <c r="E28" s="314" t="s">
+      <c r="E28" s="321" t="s">
         <v>341</v>
       </c>
-      <c r="F28" s="313" t="s">
+      <c r="F28" s="320" t="s">
         <v>347</v>
       </c>
       <c r="G28" s="50"/>
@@ -12763,13 +12763,13 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="320"/>
-      <c r="C29" s="309"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="321"/>
-      <c r="F29" s="313"/>
+      <c r="B29" s="326"/>
+      <c r="C29" s="319"/>
+      <c r="D29" s="320"/>
+      <c r="E29" s="323"/>
+      <c r="F29" s="320"/>
       <c r="G29" s="59"/>
-      <c r="H29" s="322"/>
+      <c r="H29" s="325"/>
       <c r="I29" s="51" t="s">
         <v>350</v>
       </c>
@@ -12778,13 +12778,13 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="320"/>
-      <c r="C30" s="309"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="313"/>
+      <c r="B30" s="326"/>
+      <c r="C30" s="319"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="323"/>
+      <c r="F30" s="320"/>
       <c r="G30" s="59"/>
-      <c r="H30" s="322"/>
+      <c r="H30" s="325"/>
       <c r="I30" s="51" t="s">
         <v>351</v>
       </c>
@@ -12793,13 +12793,13 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="320"/>
-      <c r="C31" s="309"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="313"/>
+      <c r="B31" s="326"/>
+      <c r="C31" s="319"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="320"/>
       <c r="G31" s="59"/>
-      <c r="H31" s="322"/>
+      <c r="H31" s="325"/>
       <c r="I31" s="51" t="s">
         <v>352</v>
       </c>
@@ -12808,13 +12808,13 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="320"/>
-      <c r="C32" s="309"/>
-      <c r="D32" s="313"/>
-      <c r="E32" s="321"/>
-      <c r="F32" s="313"/>
+      <c r="B32" s="326"/>
+      <c r="C32" s="319"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="323"/>
+      <c r="F32" s="320"/>
       <c r="G32" s="59"/>
-      <c r="H32" s="322"/>
+      <c r="H32" s="325"/>
       <c r="I32" s="51" t="s">
         <v>353</v>
       </c>
@@ -12823,11 +12823,11 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="320"/>
-      <c r="C33" s="309"/>
-      <c r="D33" s="313"/>
-      <c r="E33" s="315"/>
-      <c r="F33" s="313"/>
+      <c r="B33" s="326"/>
+      <c r="C33" s="319"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="320"/>
       <c r="G33" s="52"/>
       <c r="H33" s="312"/>
       <c r="I33" s="51" t="s">
@@ -12838,8 +12838,8 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="320"/>
-      <c r="C34" s="309"/>
+      <c r="B34" s="326"/>
+      <c r="C34" s="319"/>
       <c r="D34" s="53" t="s">
         <v>355</v>
       </c>
@@ -12863,21 +12863,21 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="320"/>
-      <c r="C35" s="309"/>
-      <c r="D35" s="316" t="s">
+      <c r="B35" s="326"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="313" t="s">
         <v>360</v>
       </c>
-      <c r="E35" s="308" t="s">
+      <c r="E35" s="314" t="s">
         <v>361</v>
       </c>
-      <c r="F35" s="316" t="s">
+      <c r="F35" s="313" t="s">
         <v>362</v>
       </c>
       <c r="G35" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="H35" s="317" t="s">
+      <c r="H35" s="316" t="s">
         <v>364</v>
       </c>
       <c r="I35" s="53" t="s">
@@ -12888,15 +12888,15 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="320"/>
-      <c r="C36" s="309"/>
-      <c r="D36" s="316"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="316"/>
+      <c r="B36" s="326"/>
+      <c r="C36" s="319"/>
+      <c r="D36" s="313"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="313"/>
       <c r="G36" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="H36" s="318"/>
+      <c r="H36" s="317"/>
       <c r="I36" s="53" t="s">
         <v>367</v>
       </c>
@@ -12906,8 +12906,8 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="49"/>
-      <c r="B37" s="320"/>
-      <c r="C37" s="309"/>
+      <c r="B37" s="326"/>
+      <c r="C37" s="319"/>
       <c r="D37" s="53" t="s">
         <v>368</v>
       </c>
@@ -12945,21 +12945,21 @@
     </row>
     <row r="38" spans="1:25" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="49"/>
-      <c r="B38" s="320"/>
-      <c r="C38" s="309"/>
-      <c r="D38" s="313" t="s">
+      <c r="B38" s="326"/>
+      <c r="C38" s="319"/>
+      <c r="D38" s="320" t="s">
         <v>316</v>
       </c>
-      <c r="E38" s="313" t="s">
+      <c r="E38" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="F38" s="313" t="s">
+      <c r="F38" s="320" t="s">
         <v>373</v>
       </c>
-      <c r="G38" s="313" t="s">
+      <c r="G38" s="320" t="s">
         <v>486</v>
       </c>
-      <c r="H38" s="313" t="s">
+      <c r="H38" s="320" t="s">
         <v>487</v>
       </c>
       <c r="I38" s="53" t="s">
@@ -12986,13 +12986,13 @@
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="49"/>
-      <c r="B39" s="320"/>
-      <c r="C39" s="309"/>
-      <c r="D39" s="313"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="313"/>
+      <c r="B39" s="326"/>
+      <c r="C39" s="319"/>
+      <c r="D39" s="320"/>
+      <c r="E39" s="320"/>
+      <c r="F39" s="320"/>
+      <c r="G39" s="320"/>
+      <c r="H39" s="320"/>
       <c r="I39" s="53" t="s">
         <v>375</v>
       </c>
@@ -13017,13 +13017,13 @@
     </row>
     <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="49"/>
-      <c r="B40" s="320"/>
-      <c r="C40" s="310"/>
-      <c r="D40" s="313"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="313"/>
+      <c r="B40" s="326"/>
+      <c r="C40" s="315"/>
+      <c r="D40" s="320"/>
+      <c r="E40" s="320"/>
+      <c r="F40" s="320"/>
+      <c r="G40" s="320"/>
+      <c r="H40" s="320"/>
       <c r="I40" s="53" t="s">
         <v>376</v>
       </c>
@@ -13047,19 +13047,19 @@
       <c r="Y40" s="49"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="307" t="s">
+      <c r="B41" s="318" t="s">
         <v>377</v>
       </c>
-      <c r="C41" s="308" t="s">
+      <c r="C41" s="314" t="s">
         <v>378</v>
       </c>
-      <c r="D41" s="313" t="s">
+      <c r="D41" s="320" t="s">
         <v>379</v>
       </c>
-      <c r="E41" s="314" t="s">
+      <c r="E41" s="321" t="s">
         <v>380</v>
       </c>
-      <c r="F41" s="319" t="s">
+      <c r="F41" s="324" t="s">
         <v>381</v>
       </c>
       <c r="G41" s="311" t="s">
@@ -13091,11 +13091,11 @@
       <c r="Y41" s="49"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="307"/>
-      <c r="C42" s="309"/>
-      <c r="D42" s="313"/>
-      <c r="E42" s="315"/>
-      <c r="F42" s="319"/>
+      <c r="B42" s="318"/>
+      <c r="C42" s="319"/>
+      <c r="D42" s="320"/>
+      <c r="E42" s="322"/>
+      <c r="F42" s="324"/>
       <c r="G42" s="312"/>
       <c r="H42" s="312"/>
       <c r="I42" s="51" t="s">
@@ -13121,8 +13121,8 @@
       <c r="Y42" s="49"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="307"/>
-      <c r="C43" s="309"/>
+      <c r="B43" s="318"/>
+      <c r="C43" s="319"/>
       <c r="D43" s="53" t="s">
         <v>386</v>
       </c>
@@ -13144,8 +13144,8 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="307"/>
-      <c r="C44" s="310"/>
+      <c r="B44" s="318"/>
+      <c r="C44" s="315"/>
       <c r="D44" s="51" t="s">
         <v>391</v>
       </c>
@@ -13169,10 +13169,10 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="307" t="s">
+      <c r="B45" s="318" t="s">
         <v>396</v>
       </c>
-      <c r="C45" s="308" t="s">
+      <c r="C45" s="314" t="s">
         <v>397</v>
       </c>
       <c r="D45" s="53" t="s">
@@ -13198,8 +13198,8 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="307"/>
-      <c r="C46" s="309"/>
+      <c r="B46" s="318"/>
+      <c r="C46" s="319"/>
       <c r="D46" s="53" t="s">
         <v>404</v>
       </c>
@@ -13221,21 +13221,21 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="307"/>
-      <c r="C47" s="309"/>
-      <c r="D47" s="313" t="s">
+      <c r="B47" s="318"/>
+      <c r="C47" s="319"/>
+      <c r="D47" s="320" t="s">
         <v>408</v>
       </c>
-      <c r="E47" s="314" t="s">
+      <c r="E47" s="321" t="s">
         <v>399</v>
       </c>
-      <c r="F47" s="316" t="s">
+      <c r="F47" s="313" t="s">
         <v>409</v>
       </c>
       <c r="G47" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="H47" s="317" t="s">
+      <c r="H47" s="316" t="s">
         <v>411</v>
       </c>
       <c r="I47" s="53" t="s">
@@ -13246,15 +13246,15 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="307"/>
-      <c r="C48" s="310"/>
-      <c r="D48" s="313"/>
-      <c r="E48" s="315"/>
-      <c r="F48" s="316"/>
+      <c r="B48" s="318"/>
+      <c r="C48" s="315"/>
+      <c r="D48" s="320"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="313"/>
       <c r="G48" s="52" t="s">
         <v>413</v>
       </c>
-      <c r="H48" s="318"/>
+      <c r="H48" s="317"/>
       <c r="I48" s="53" t="s">
         <v>414</v>
       </c>
@@ -13263,10 +13263,10 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="307" t="s">
+      <c r="B49" s="318" t="s">
         <v>415</v>
       </c>
-      <c r="C49" s="308" t="s">
+      <c r="C49" s="314" t="s">
         <v>416</v>
       </c>
       <c r="D49" s="53" t="s">
@@ -13292,8 +13292,8 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="307"/>
-      <c r="C50" s="309"/>
+      <c r="B50" s="318"/>
+      <c r="C50" s="319"/>
       <c r="D50" s="53" t="s">
         <v>422</v>
       </c>
@@ -13317,8 +13317,8 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="307"/>
-      <c r="C51" s="309"/>
+      <c r="B51" s="318"/>
+      <c r="C51" s="319"/>
       <c r="D51" s="53" t="s">
         <v>427</v>
       </c>
@@ -13340,8 +13340,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="307"/>
-      <c r="C52" s="309"/>
+      <c r="B52" s="318"/>
+      <c r="C52" s="319"/>
       <c r="D52" s="53" t="s">
         <v>430</v>
       </c>
@@ -13365,8 +13365,8 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="307"/>
-      <c r="C53" s="310"/>
+      <c r="B53" s="318"/>
+      <c r="C53" s="315"/>
       <c r="D53" s="53" t="s">
         <v>152</v>
       </c>
@@ -13391,54 +13391,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="H41:H42"/>
@@ -13454,6 +13406,54 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
